--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47664\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A8B0A-13B1-4E53-B637-79AC3EF67B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC25FFD-EF24-4D1B-A50A-B383B06966BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1980" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -4037,7 +4037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4820,11 +4820,11 @@
   <dimension ref="A1:H640"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D349" sqref="D349"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -4837,7 +4837,7 @@
     <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>753</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>759</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5">
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>90</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5">
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>90</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5">
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>90</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>90</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>90</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>90</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>90</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>90</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>90</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>90</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>90</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>90</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>90</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5">
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>90</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.5">
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>90</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>90</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>90</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>90</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>90</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>90</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>90</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>90</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>90</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>90</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>90</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>90</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>758</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="8" t="s">
         <v>852</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="33" customFormat="1">
+    <row r="106" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C106" s="33" t="s">
         <v>850</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>854</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>96</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>96</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>96</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>96</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>96</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>96</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>96</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>96</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>757</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>903</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>118</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>118</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>118</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>118</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>118</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>118</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>60</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>887</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>118</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>118</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>118</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="10" t="s">
         <v>890</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C169" s="10" t="s">
         <v>58</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>118</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>118</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>118</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>118</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>118</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>118</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>118</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>118</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>118</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>118</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>118</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>118</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>118</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>118</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>118</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>118</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>118</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>118</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="19" customFormat="1">
+    <row r="192" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>118</v>
       </c>
@@ -7942,12 +7942,12 @@
         <v>773</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="27" customFormat="1">
+    <row r="193" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
       <c r="D193" s="28"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>756</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>396</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>395</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>395</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>395</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>395</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>395</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>395</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>395</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>395</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>395</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>395</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>395</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
         <v>887</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>395</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>58</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>395</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>395</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>395</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>395</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>395</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>395</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>395</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>395</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>395</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>395</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>395</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>684</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>684</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>684</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16.5">
+    <row r="226" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>684</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>684</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
         <v>887</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="18.75">
+    <row r="229" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>684</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="20.25">
+    <row r="230" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>684</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="20.25">
+    <row r="231" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>684</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>684</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>684</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
         <v>58</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>684</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="20.25">
+    <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>684</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="20.25">
+    <row r="237" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>684</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="20.25">
+    <row r="238" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>684</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="20.25">
+    <row r="240" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>684</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>684</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>684</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>684</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>684</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>684</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>684</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>684</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>684</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>684</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>684</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>685</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>685</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>685</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>685</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>685</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>685</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>685</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C259" t="s">
         <v>58</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>685</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>685</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
         <v>887</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>685</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>685</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>685</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>685</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>685</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>685</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>685</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>685</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>685</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>685</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>685</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>685</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>685</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>685</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>685</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>685</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>685</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>685</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>685</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>686</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>686</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
         <v>903</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>686</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>686</v>
       </c>
@@ -9580,11 +9580,11 @@
       <c r="G287" t="s">
         <v>28</v>
       </c>
-      <c r="H287" t="s">
+      <c r="H287" s="14" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>686</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>686</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>686</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>686</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>686</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>686</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>686</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>686</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>686</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>686</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>686</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>686</v>
       </c>
@@ -9811,11 +9811,11 @@
       <c r="G299" t="s">
         <v>28</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H299" s="14" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>686</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
         <v>887</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>686</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
         <v>888</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>686</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C305" t="s">
         <v>58</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>686</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>686</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>686</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>686</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>686</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>686</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>686</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>686</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>686</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>686</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>686</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>686</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>686</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>686</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>694</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>687</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>687</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>687</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>687</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>687</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>687</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>687</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>687</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C330" t="s">
         <v>887</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>687</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C332" t="s">
         <v>58</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>687</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>687</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>687</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>687</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>687</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>687</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>687</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>687</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>687</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>687</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>687</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>687</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>687</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>688</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>688</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>688</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>688</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>688</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>688</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>688</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>688</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>688</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>688</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>688</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>688</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>688</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>688</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>688</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>688</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>688</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>688</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>688</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>688</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>688</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>688</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>688</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>689</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>689</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>689</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>689</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>689</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>689</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>689</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>689</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>689</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>689</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>689</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>689</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>689</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>689</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>689</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>689</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>689</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>689</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>689</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>689</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>689</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>689</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>689</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>690</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>690</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>690</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>690</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>690</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>690</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>690</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>690</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>690</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>690</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>690</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>690</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>690</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>690</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>690</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>690</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>690</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>690</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>690</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>690</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>690</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>690</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>690</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>690</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>690</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>690</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>690</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>690</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>728</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>691</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>728</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>691</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>728</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>691</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>691</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>691</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>691</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>691</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>691</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>691</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>691</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>691</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>691</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>691</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>691</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>691</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>691</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>691</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>691</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>691</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>691</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>727</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>692</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>692</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>692</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>692</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>692</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>692</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>692</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>692</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>692</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>692</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>692</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>692</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>692</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>692</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>692</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>692</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>692</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>692</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>692</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>692</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>692</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>693</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>693</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>693</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>693</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>693</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>693</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>693</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>693</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>693</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>693</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>693</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>693</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>693</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>693</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>693</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>693</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>693</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>693</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>693</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>693</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>693</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>693</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>147</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>147</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>147</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>147</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>147</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>147</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>147</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>147</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>147</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>147</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>147</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>147</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>147</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>147</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>147</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>147</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>147</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>147</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>147</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>147</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>147</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>147</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>147</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>147</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>147</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>147</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>147</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>147</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>147</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>147</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>147</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>147</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>147</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>147</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>147</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>147</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>147</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>147</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>147</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>147</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>147</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>147</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>147</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>147</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>147</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>181</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>181</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>181</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>181</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>181</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>181</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>181</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>181</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>181</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>181</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>181</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>181</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>181</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>181</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>181</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>181</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>181</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>181</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>181</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>181</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>181</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>181</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>181</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>181</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>181</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>181</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>181</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>181</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>181</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>760</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>237</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>237</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>237</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>237</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>237</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>237</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>237</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>237</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>237</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>237</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>237</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>237</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>237</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>237</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>237</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>237</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>237</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>237</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>237</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>237</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>237</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>237</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>237</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>237</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>237</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>237</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
         <v>290</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>290</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>290</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>290</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>290</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>290</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>290</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>290</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>290</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>290</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>290</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>290</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>290</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>290</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>290</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>290</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
         <v>317</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>317</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>317</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>317</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>317</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>317</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>317</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>317</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>317</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>317</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>317</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>317</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>317</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>317</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>317</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>317</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>317</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>317</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>317</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>317</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>317</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>317</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>317</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>317</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>317</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>317</v>
       </c>

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC25FFD-EF24-4D1B-A50A-B383B06966BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B6F2D-6BDC-4AEE-AB77-440769F99E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="3645" windowWidth="19545" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="916">
   <si>
     <t>字段名</t>
   </si>
@@ -4032,12 +4032,20 @@
   <si>
     <t>main_girder_top_surface_width</t>
   </si>
+  <si>
+    <t xml:space="preserve">横梁材料： 钢筋砼 ， 预应力砼 ， 钢材 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁截面形式： 实心矩形 ， 挖空矩形 ， 钢结构</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4255,8 +4263,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4335,6 +4356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -4383,7 +4410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4431,6 +4458,10 @@
     <xf numFmtId="0" fontId="28" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4819,9 +4850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F276" sqref="F276"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7507,10 +7538,10 @@
       <c r="B167" t="s">
         <v>736</v>
       </c>
-      <c r="C167" s="37" t="s">
+      <c r="C167" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D167" s="37" t="s">
+      <c r="D167" s="48" t="s">
         <v>132</v>
       </c>
       <c r="E167" t="s">
@@ -7552,10 +7583,10 @@
       <c r="B170" t="s">
         <v>736</v>
       </c>
-      <c r="C170" s="38" t="s">
+      <c r="C170" s="50" t="s">
         <v>864</v>
       </c>
-      <c r="D170" s="38" t="s">
+      <c r="D170" s="48" t="s">
         <v>133</v>
       </c>
       <c r="E170" t="s">
@@ -7569,10 +7600,10 @@
       <c r="B171" t="s">
         <v>736</v>
       </c>
-      <c r="C171" s="38" t="s">
+      <c r="C171" s="50" t="s">
         <v>850</v>
       </c>
-      <c r="D171" s="38" t="s">
+      <c r="D171" s="48" t="s">
         <v>134</v>
       </c>
       <c r="E171" t="s">
@@ -7603,10 +7634,10 @@
       <c r="B173" t="s">
         <v>736</v>
       </c>
-      <c r="C173" s="40" t="s">
+      <c r="C173" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D173" s="38" t="s">
+      <c r="D173" s="48" t="s">
         <v>138</v>
       </c>
       <c r="E173" t="s">
@@ -7623,10 +7654,10 @@
       <c r="B174" t="s">
         <v>736</v>
       </c>
-      <c r="C174" s="38" t="s">
+      <c r="C174" s="50" t="s">
         <v>891</v>
       </c>
-      <c r="D174" s="38" t="s">
+      <c r="D174" s="48" t="s">
         <v>139</v>
       </c>
       <c r="E174" t="s">
@@ -7640,10 +7671,10 @@
       <c r="B175" t="s">
         <v>736</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C175" s="50" t="s">
         <v>892</v>
       </c>
-      <c r="D175" s="38" t="s">
+      <c r="D175" s="48" t="s">
         <v>140</v>
       </c>
       <c r="E175" t="s">
@@ -7657,10 +7688,10 @@
       <c r="B176" t="s">
         <v>736</v>
       </c>
-      <c r="C176" s="38" t="s">
+      <c r="C176" s="50" t="s">
         <v>893</v>
       </c>
-      <c r="D176" s="38" t="s">
+      <c r="D176" s="48" t="s">
         <v>141</v>
       </c>
       <c r="E176" t="s">
@@ -7691,10 +7722,10 @@
       <c r="B178" t="s">
         <v>736</v>
       </c>
-      <c r="C178" s="40" t="s">
+      <c r="C178" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="D178" s="38" t="s">
+      <c r="D178" s="48" t="s">
         <v>514</v>
       </c>
       <c r="E178" t="s">
@@ -7745,10 +7776,10 @@
       <c r="B181" t="s">
         <v>736</v>
       </c>
-      <c r="C181" s="38" t="s">
+      <c r="C181" s="50" t="s">
         <v>898</v>
       </c>
-      <c r="D181" s="38" t="s">
+      <c r="D181" s="48" t="s">
         <v>145</v>
       </c>
       <c r="E181" t="s">
@@ -8629,7 +8660,7 @@
         <v>28</v>
       </c>
       <c r="H232" t="s">
-        <v>780</v>
+        <v>914</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -8683,7 +8714,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="s">
-        <v>820</v>
+        <v>915</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
@@ -9166,7 +9197,7 @@
         <v>28</v>
       </c>
       <c r="H263" t="s">
-        <v>780</v>
+        <v>914</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46B9AE9-83EA-4F88-B96B-5186EDBF448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CDB6CF-70AC-4836-8145-E16790FA17DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">这里是原型上面有的字段
+          <t xml:space="preserve">下面黄色标记的9个字段这里是‘锦阳’原型上面有的字段，但是国产化那边没有这9个字段
 </t>
         </r>
       </text>
@@ -4078,7 +4078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4885,10 +4885,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -4901,7 +4901,7 @@
     <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>751</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>757</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16.5">
       <c r="A65" s="5" t="s">
         <v>90</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="16.5">
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16.5">
       <c r="A67" s="6" t="s">
         <v>90</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16.5">
       <c r="A68" s="6" t="s">
         <v>90</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="6" t="s">
         <v>90</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="6" t="s">
         <v>90</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="6" t="s">
         <v>90</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="6" t="s">
         <v>90</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="6" t="s">
         <v>90</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="6" t="s">
         <v>90</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="6" t="s">
         <v>90</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.5">
       <c r="A77" s="6" t="s">
         <v>90</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16.5">
       <c r="A78" s="6" t="s">
         <v>90</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="16.5">
       <c r="A79" s="6" t="s">
         <v>90</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="16.5">
       <c r="A80" s="6" t="s">
         <v>90</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="16.5">
       <c r="A81" s="6" t="s">
         <v>90</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
         <v>90</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>90</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
         <v>90</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
         <v>90</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
         <v>90</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
         <v>90</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
         <v>90</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
         <v>90</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
         <v>90</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
         <v>90</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
         <v>90</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
         <v>756</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="C102" s="8" t="s">
         <v>850</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="33" customFormat="1">
       <c r="C106" s="33" t="s">
         <v>848</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="C108" t="s">
         <v>852</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>96</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>96</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>96</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>96</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>96</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>96</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>96</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>96</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
         <v>755</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="C146" t="s">
         <v>896</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>118</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>118</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>118</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>118</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>118</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>118</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="C163" t="s">
         <v>60</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="C164" t="s">
         <v>909</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>118</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>118</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>118</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="C168" s="10" t="s">
         <v>888</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="C169" s="10" t="s">
         <v>58</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>118</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>118</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>118</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>118</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>118</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>118</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>118</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>118</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>118</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>118</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>118</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>118</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>118</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>118</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>118</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>118</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>118</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>118</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" s="19" customFormat="1">
       <c r="A192" t="s">
         <v>118</v>
       </c>
@@ -8006,12 +8006,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" s="27" customFormat="1">
       <c r="A193"/>
       <c r="B193"/>
       <c r="D193" s="28"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
         <v>754</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>393</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>393</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>393</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>393</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>393</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>393</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>393</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>393</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>393</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="C208" t="s">
         <v>885</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>393</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="C210" t="s">
         <v>58</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>393</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>393</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>393</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>393</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>393</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>393</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>393</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>393</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>393</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>393</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>393</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
         <v>682</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>682</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>682</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="16.5">
       <c r="A226" t="s">
         <v>682</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>682</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="C228" t="s">
         <v>885</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="18.75">
       <c r="A229" t="s">
         <v>682</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" ht="20.25">
       <c r="A230" t="s">
         <v>682</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" ht="20.25">
       <c r="A231" t="s">
         <v>682</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>682</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>682</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="C234" t="s">
         <v>58</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>682</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" ht="20.25">
       <c r="A236" t="s">
         <v>682</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" ht="20.25">
       <c r="A237" t="s">
         <v>682</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" ht="20.25">
       <c r="A238" t="s">
         <v>682</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>682</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" ht="20.25">
       <c r="A240" t="s">
         <v>682</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>682</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>682</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>682</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>682</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>682</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>682</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>682</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>682</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>682</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>682</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" s="4" t="s">
         <v>683</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>683</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>683</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>683</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>683</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>683</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>683</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="C259" t="s">
         <v>58</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>683</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>683</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="C262" t="s">
         <v>885</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>683</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>683</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>683</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>683</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>683</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>683</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>683</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>683</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>683</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>683</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>683</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>683</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>683</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>683</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>683</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>683</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>683</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>683</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>683</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283" s="4" t="s">
         <v>684</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>684</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="C285" t="s">
         <v>896</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>684</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>684</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>684</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>684</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>684</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>684</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>684</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>684</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>684</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>684</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>684</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>684</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>684</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>684</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>684</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="C301" t="s">
         <v>885</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>684</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="C303" t="s">
         <v>886</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>684</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7">
       <c r="C305" t="s">
         <v>58</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>684</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>684</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>684</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>684</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>684</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>684</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>684</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>684</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>684</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>684</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>684</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>684</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>684</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>684</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="A321" s="4" t="s">
         <v>692</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>685</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>685</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>685</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>685</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>685</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>685</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>685</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>685</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="C330" t="s">
         <v>885</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>685</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="C332" t="s">
         <v>58</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>685</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>685</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>685</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>685</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>685</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>685</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>685</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>685</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>685</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>685</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>685</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>685</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>685</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7">
       <c r="A347" s="4" t="s">
         <v>686</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>686</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>686</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>686</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>686</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>686</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>686</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>686</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
         <v>686</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>686</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>686</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>686</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>686</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
         <v>686</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>686</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>686</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>686</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>686</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>686</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>686</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>686</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>686</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7">
       <c r="A371" s="4" t="s">
         <v>687</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>687</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>687</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>687</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>687</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>687</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>687</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>687</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>687</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>687</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>687</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>687</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>687</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>687</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>687</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>687</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7">
       <c r="A387" t="s">
         <v>687</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7">
       <c r="A388" t="s">
         <v>687</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>687</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>687</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>687</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>687</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7">
       <c r="A393" t="s">
         <v>687</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7">
       <c r="A395" s="4" t="s">
         <v>688</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>688</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>688</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>688</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>688</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>688</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>688</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>688</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>688</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>688</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>688</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>688</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>688</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>688</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>688</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>688</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>688</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>688</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>688</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>688</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>688</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>688</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>688</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>688</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7">
       <c r="A419" t="s">
         <v>688</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7">
       <c r="A420" t="s">
         <v>688</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>688</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>688</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7">
       <c r="A424" s="4" t="s">
         <v>726</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7">
       <c r="A425" t="s">
         <v>689</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>726</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>689</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>726</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>689</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>689</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>689</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>689</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>689</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>689</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>689</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>689</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>689</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>689</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>689</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>689</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>689</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>689</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>689</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>689</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>689</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>689</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7">
       <c r="A448" s="4" t="s">
         <v>725</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7">
       <c r="A449" t="s">
         <v>690</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7">
       <c r="A450" t="s">
         <v>690</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7">
       <c r="A451" t="s">
         <v>690</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7">
       <c r="A452" t="s">
         <v>690</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7">
       <c r="A453" t="s">
         <v>690</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7">
       <c r="A454" t="s">
         <v>690</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7">
       <c r="A455" t="s">
         <v>690</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7">
       <c r="A456" t="s">
         <v>690</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7">
       <c r="A457" t="s">
         <v>690</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7">
       <c r="A458" t="s">
         <v>690</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7">
       <c r="A459" t="s">
         <v>690</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7">
       <c r="A460" t="s">
         <v>690</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7">
       <c r="A461" t="s">
         <v>690</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7">
       <c r="A462" t="s">
         <v>690</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7">
       <c r="A463" t="s">
         <v>690</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7">
       <c r="A464" t="s">
         <v>690</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7">
       <c r="A465" t="s">
         <v>690</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7">
       <c r="A466" t="s">
         <v>690</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7">
       <c r="A467" t="s">
         <v>690</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7">
       <c r="A468" t="s">
         <v>690</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7">
       <c r="A469" t="s">
         <v>690</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7">
       <c r="A471" s="4" t="s">
         <v>691</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7">
       <c r="A472" t="s">
         <v>691</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7">
       <c r="A473" t="s">
         <v>691</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7">
       <c r="A474" t="s">
         <v>691</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7">
       <c r="A475" t="s">
         <v>691</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7">
       <c r="A476" t="s">
         <v>691</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7">
       <c r="A477" t="s">
         <v>691</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7">
       <c r="A478" t="s">
         <v>691</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7">
       <c r="A479" t="s">
         <v>691</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7">
       <c r="A480" t="s">
         <v>691</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7">
       <c r="A481" t="s">
         <v>691</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7">
       <c r="A482" t="s">
         <v>691</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7">
       <c r="A483" t="s">
         <v>691</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7">
       <c r="A484" t="s">
         <v>691</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7">
       <c r="A485" t="s">
         <v>691</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7">
       <c r="A486" t="s">
         <v>691</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7">
       <c r="A487" t="s">
         <v>691</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7">
       <c r="A488" t="s">
         <v>691</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7">
       <c r="A489" t="s">
         <v>691</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7">
       <c r="A490" t="s">
         <v>691</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7">
       <c r="A491" t="s">
         <v>691</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7">
       <c r="A492" t="s">
         <v>691</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7">
       <c r="A494" t="s">
         <v>145</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7">
       <c r="A495" t="s">
         <v>145</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7">
       <c r="A496" t="s">
         <v>145</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7">
       <c r="A497" t="s">
         <v>145</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7">
       <c r="A498" t="s">
         <v>145</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7">
       <c r="A500" t="s">
         <v>145</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7">
       <c r="A501" t="s">
         <v>145</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7">
       <c r="A502" t="s">
         <v>145</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7">
       <c r="A503" t="s">
         <v>145</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7">
       <c r="A504" t="s">
         <v>145</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7">
       <c r="A505" t="s">
         <v>145</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7">
       <c r="A506" t="s">
         <v>145</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7">
       <c r="A507" t="s">
         <v>145</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7">
       <c r="A508" t="s">
         <v>145</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7">
       <c r="A509" t="s">
         <v>145</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7">
       <c r="A510" t="s">
         <v>145</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7">
       <c r="A511" t="s">
         <v>145</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7">
       <c r="A512" t="s">
         <v>145</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>145</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>145</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>145</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>145</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>145</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>145</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>145</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>145</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>145</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>145</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>145</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>145</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>145</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>145</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>145</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>145</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7">
       <c r="A529" t="s">
         <v>145</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7">
       <c r="A530" t="s">
         <v>145</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7">
       <c r="A531" t="s">
         <v>145</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7">
       <c r="A532" t="s">
         <v>145</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7">
       <c r="A533" t="s">
         <v>145</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7">
       <c r="A534" t="s">
         <v>145</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7">
       <c r="A535" t="s">
         <v>145</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7">
       <c r="A536" t="s">
         <v>145</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7">
       <c r="A537" t="s">
         <v>145</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7">
       <c r="A538" t="s">
         <v>145</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7">
       <c r="A540" t="s">
         <v>179</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7">
       <c r="A541" t="s">
         <v>179</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7">
       <c r="A542" t="s">
         <v>179</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7">
       <c r="A543" t="s">
         <v>179</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7">
       <c r="A544" t="s">
         <v>179</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7">
       <c r="A545" t="s">
         <v>179</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7">
       <c r="A546" t="s">
         <v>179</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7">
       <c r="A547" t="s">
         <v>179</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7">
       <c r="A548" t="s">
         <v>179</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7">
       <c r="A549" t="s">
         <v>179</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7">
       <c r="A550" t="s">
         <v>179</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7">
       <c r="A551" t="s">
         <v>179</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7">
       <c r="A552" t="s">
         <v>179</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7">
       <c r="A553" t="s">
         <v>179</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7">
       <c r="A554" t="s">
         <v>179</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7">
       <c r="A555" t="s">
         <v>179</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7">
       <c r="A556" t="s">
         <v>179</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7">
       <c r="A557" t="s">
         <v>179</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7">
       <c r="A558" t="s">
         <v>179</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7">
       <c r="A559" t="s">
         <v>179</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7">
       <c r="A560" t="s">
         <v>179</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7">
       <c r="A561" t="s">
         <v>179</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7">
       <c r="A562" t="s">
         <v>179</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7">
       <c r="A563" t="s">
         <v>179</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7">
       <c r="A564" t="s">
         <v>179</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7">
       <c r="A565" t="s">
         <v>179</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7">
       <c r="A566" t="s">
         <v>179</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7">
       <c r="A567" t="s">
         <v>179</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7">
       <c r="A568" t="s">
         <v>179</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7">
       <c r="A570" s="4" t="s">
         <v>758</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7">
       <c r="A571" t="s">
         <v>235</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7">
       <c r="A572" t="s">
         <v>235</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7">
       <c r="A573" t="s">
         <v>235</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7">
       <c r="A574" t="s">
         <v>235</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7">
       <c r="A575" t="s">
         <v>235</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7">
       <c r="A576" t="s">
         <v>235</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7">
       <c r="A577" t="s">
         <v>235</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7">
       <c r="A578" t="s">
         <v>235</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7">
       <c r="A579" t="s">
         <v>235</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7">
       <c r="A580" t="s">
         <v>235</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7">
       <c r="A581" t="s">
         <v>235</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7">
       <c r="A582" t="s">
         <v>235</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7">
       <c r="A583" t="s">
         <v>235</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7">
       <c r="A584" t="s">
         <v>235</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7">
       <c r="A585" t="s">
         <v>235</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7">
       <c r="A586" t="s">
         <v>235</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7">
       <c r="A587" t="s">
         <v>235</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7">
       <c r="A588" t="s">
         <v>235</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7">
       <c r="A589" t="s">
         <v>235</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7">
       <c r="A590" t="s">
         <v>235</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7">
       <c r="A591" t="s">
         <v>235</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7">
       <c r="A592" t="s">
         <v>235</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4">
       <c r="A593" t="s">
         <v>235</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4">
       <c r="A594" t="s">
         <v>235</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4">
       <c r="A595" t="s">
         <v>235</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4">
       <c r="A596" t="s">
         <v>235</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4">
       <c r="A598" s="4" t="s">
         <v>288</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4">
       <c r="A599" t="s">
         <v>288</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4">
       <c r="A600" t="s">
         <v>288</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4">
       <c r="A601" t="s">
         <v>288</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4">
       <c r="A602" t="s">
         <v>288</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4">
       <c r="A603" t="s">
         <v>288</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4">
       <c r="A604" t="s">
         <v>288</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4">
       <c r="A605" t="s">
         <v>288</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4">
       <c r="A606" t="s">
         <v>288</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4">
       <c r="A607" t="s">
         <v>288</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4">
       <c r="A608" t="s">
         <v>288</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4">
       <c r="A609" t="s">
         <v>288</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4">
       <c r="A610" t="s">
         <v>288</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4">
       <c r="A611" t="s">
         <v>288</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4">
       <c r="A612" t="s">
         <v>288</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4">
       <c r="A613" t="s">
         <v>288</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4">
       <c r="A615" s="4" t="s">
         <v>315</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4">
       <c r="A616" t="s">
         <v>315</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4">
       <c r="A617" t="s">
         <v>315</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4">
       <c r="A618" t="s">
         <v>315</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4">
       <c r="A619" t="s">
         <v>315</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4">
       <c r="A620" t="s">
         <v>315</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4">
       <c r="A621" t="s">
         <v>315</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4">
       <c r="A622" t="s">
         <v>315</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4">
       <c r="A623" t="s">
         <v>315</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4">
       <c r="A624" t="s">
         <v>315</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7">
       <c r="A625" t="s">
         <v>315</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7">
       <c r="A626" t="s">
         <v>315</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7">
       <c r="A627" t="s">
         <v>315</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7">
       <c r="A628" t="s">
         <v>315</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7">
       <c r="A629" t="s">
         <v>315</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7">
       <c r="A630" t="s">
         <v>315</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7">
       <c r="A631" t="s">
         <v>315</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7">
       <c r="A632" t="s">
         <v>315</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7">
       <c r="A633" t="s">
         <v>315</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7">
       <c r="A634" t="s">
         <v>315</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7">
       <c r="A635" t="s">
         <v>315</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7">
       <c r="A636" t="s">
         <v>315</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7">
       <c r="A637" t="s">
         <v>315</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7">
       <c r="A638" t="s">
         <v>315</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7">
       <c r="A639" t="s">
         <v>315</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7">
       <c r="A640" t="s">
         <v>315</v>
       </c>

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hillcat.github.io\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CDB6CF-70AC-4836-8145-E16790FA17DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5652F2C-AC0F-4F33-93A1-B2D7F81F07BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="920">
   <si>
     <t>字段名</t>
   </si>
@@ -4073,12 +4073,16 @@
     <t>number_atfd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>bull_leg_material</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4884,11 +4888,11 @@
   <dimension ref="A1:H640"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -4901,7 +4905,7 @@
     <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>751</v>
       </c>
@@ -4927,7 +4931,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4983,7 +4987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4997,7 +5001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -5185,7 +5189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>757</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5">
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>90</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5">
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>90</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5">
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>90</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>90</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>90</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>90</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>90</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>90</v>
       </c>
@@ -5967,7 +5971,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>90</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>90</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>90</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>90</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>90</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5">
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>90</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.5">
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>90</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>90</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>90</v>
       </c>
@@ -6135,7 +6139,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>90</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>90</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>90</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>90</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>90</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>90</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>90</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -6271,7 +6275,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>90</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>90</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>756</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="8" t="s">
         <v>850</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="33" customFormat="1">
+    <row r="106" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C106" s="33" t="s">
         <v>848</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>852</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -6543,7 +6547,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -6737,7 +6741,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>96</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -6791,7 +6795,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>96</v>
       </c>
@@ -6814,7 +6818,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>96</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -6919,7 +6923,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>96</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>96</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -7038,7 +7042,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>96</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>96</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>96</v>
       </c>
@@ -7089,7 +7093,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>755</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>896</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -7231,7 +7235,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>118</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>118</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>118</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -7342,7 +7346,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>118</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>118</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>118</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>60</v>
       </c>
@@ -7516,7 +7520,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>909</v>
       </c>
@@ -7530,7 +7534,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>118</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>118</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>118</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="10" t="s">
         <v>888</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C169" s="10" t="s">
         <v>58</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>118</v>
       </c>
@@ -7626,7 +7630,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>118</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>118</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>118</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>118</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>118</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>118</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>118</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>118</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>118</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>118</v>
       </c>
@@ -7819,7 +7823,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>118</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>118</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -7870,7 +7874,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>118</v>
       </c>
@@ -7887,7 +7891,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>118</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>118</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>118</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>118</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>118</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>118</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="19" customFormat="1">
+    <row r="192" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>118</v>
       </c>
@@ -8006,12 +8010,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="27" customFormat="1">
+    <row r="193" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
       <c r="D193" s="28"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>754</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>393</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -8082,7 +8086,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>393</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>393</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>393</v>
       </c>
@@ -8173,7 +8177,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>393</v>
       </c>
@@ -8193,7 +8197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>393</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>393</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>393</v>
       </c>
@@ -8253,7 +8257,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>393</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
         <v>885</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>393</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>58</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>393</v>
       </c>
@@ -8338,7 +8342,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>393</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>393</v>
       </c>
@@ -8372,7 +8376,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>393</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>393</v>
       </c>
@@ -8406,7 +8410,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>393</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>393</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>393</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>393</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>393</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>393</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>682</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>682</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>682</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16.5">
+    <row r="226" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>682</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>682</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
         <v>885</v>
       </c>
@@ -8622,7 +8626,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="18.75">
+    <row r="229" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>682</v>
       </c>
@@ -8639,7 +8643,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="20.25">
+    <row r="230" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>682</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="20.25">
+    <row r="231" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>682</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>682</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>682</v>
       </c>
@@ -8713,7 +8717,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
         <v>58</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>682</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="20.25">
+    <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>682</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="20.25">
+    <row r="237" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>682</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="20.25">
+    <row r="238" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>682</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>682</v>
       </c>
@@ -8818,7 +8822,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="20.25">
+    <row r="240" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>682</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>682</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>682</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>682</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>682</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>682</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>682</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>682</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>682</v>
       </c>
@@ -8971,7 +8975,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>682</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>682</v>
       </c>
@@ -9005,7 +9009,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>683</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>683</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>683</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>683</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>683</v>
       </c>
@@ -9108,7 +9112,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>683</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>683</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C259" t="s">
         <v>58</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>683</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>683</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
         <v>885</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>683</v>
       </c>
@@ -9233,7 +9237,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>683</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>683</v>
       </c>
@@ -9270,7 +9274,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>683</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>683</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>683</v>
       </c>
@@ -9327,7 +9331,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>683</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>683</v>
       </c>
@@ -9367,7 +9371,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>683</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>683</v>
       </c>
@@ -9401,7 +9405,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>683</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>683</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>683</v>
       </c>
@@ -9452,7 +9456,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>683</v>
       </c>
@@ -9469,7 +9473,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>683</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>683</v>
       </c>
@@ -9503,7 +9507,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>683</v>
       </c>
@@ -9520,7 +9524,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>683</v>
       </c>
@@ -9537,7 +9541,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>683</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>684</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>684</v>
       </c>
@@ -9588,9 +9592,9 @@
         <v>771</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="D285" t="s">
         <v>795</v>
@@ -9608,7 +9612,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>684</v>
       </c>
@@ -9625,7 +9629,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>684</v>
       </c>
@@ -9648,7 +9652,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>684</v>
       </c>
@@ -9665,7 +9669,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>684</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>684</v>
       </c>
@@ -9705,7 +9709,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>684</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>684</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>684</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>684</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>684</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>684</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>684</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>684</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>684</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>684</v>
       </c>
@@ -9896,7 +9900,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
         <v>885</v>
       </c>
@@ -9910,7 +9914,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>684</v>
       </c>
@@ -9933,7 +9937,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
         <v>886</v>
       </c>
@@ -9947,7 +9951,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>684</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C305" t="s">
         <v>58</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>684</v>
       </c>
@@ -9995,7 +9999,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>684</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>684</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>684</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>684</v>
       </c>
@@ -10069,7 +10073,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>684</v>
       </c>
@@ -10086,7 +10090,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>684</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>684</v>
       </c>
@@ -10120,7 +10124,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>684</v>
       </c>
@@ -10137,7 +10141,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>684</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>684</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>684</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>684</v>
       </c>
@@ -10205,7 +10209,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>684</v>
       </c>
@@ -10222,7 +10226,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>692</v>
       </c>
@@ -10239,7 +10243,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>685</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>685</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>685</v>
       </c>
@@ -10302,7 +10306,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>685</v>
       </c>
@@ -10319,7 +10323,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>685</v>
       </c>
@@ -10336,7 +10340,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>685</v>
       </c>
@@ -10353,7 +10357,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>685</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>685</v>
       </c>
@@ -10393,7 +10397,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C330" t="s">
         <v>885</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>685</v>
       </c>
@@ -10430,7 +10434,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C332" t="s">
         <v>58</v>
       </c>
@@ -10444,7 +10448,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>685</v>
       </c>
@@ -10461,7 +10465,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>685</v>
       </c>
@@ -10478,7 +10482,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>685</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>685</v>
       </c>
@@ -10512,7 +10516,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>685</v>
       </c>
@@ -10529,7 +10533,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>685</v>
       </c>
@@ -10546,7 +10550,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>685</v>
       </c>
@@ -10563,7 +10567,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>685</v>
       </c>
@@ -10580,7 +10584,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>685</v>
       </c>
@@ -10597,7 +10601,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>685</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>685</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>685</v>
       </c>
@@ -10648,7 +10652,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>685</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>686</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>686</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>686</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>686</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>686</v>
       </c>
@@ -10752,7 +10756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>686</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>686</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>686</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>686</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>686</v>
       </c>
@@ -10834,7 +10838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>686</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>686</v>
       </c>
@@ -10868,7 +10872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>686</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>686</v>
       </c>
@@ -10896,7 +10900,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>686</v>
       </c>
@@ -10910,7 +10914,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>686</v>
       </c>
@@ -10924,7 +10928,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>686</v>
       </c>
@@ -10938,7 +10942,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>686</v>
       </c>
@@ -10952,7 +10956,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>686</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>686</v>
       </c>
@@ -10980,7 +10984,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>686</v>
       </c>
@@ -10994,7 +10998,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>686</v>
       </c>
@@ -11008,7 +11012,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>687</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>687</v>
       </c>
@@ -11039,7 +11043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>687</v>
       </c>
@@ -11056,7 +11060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>687</v>
       </c>
@@ -11070,7 +11074,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>687</v>
       </c>
@@ -11087,7 +11091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>687</v>
       </c>
@@ -11104,7 +11108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>687</v>
       </c>
@@ -11118,7 +11122,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>687</v>
       </c>
@@ -11135,7 +11139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>687</v>
       </c>
@@ -11152,7 +11156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>687</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>687</v>
       </c>
@@ -11186,7 +11190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>687</v>
       </c>
@@ -11203,7 +11207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>687</v>
       </c>
@@ -11220,7 +11224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>687</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>687</v>
       </c>
@@ -11248,7 +11252,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>687</v>
       </c>
@@ -11262,7 +11266,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>687</v>
       </c>
@@ -11276,7 +11280,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>687</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>687</v>
       </c>
@@ -11304,7 +11308,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>687</v>
       </c>
@@ -11318,7 +11322,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>687</v>
       </c>
@@ -11332,7 +11336,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>687</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>687</v>
       </c>
@@ -11360,7 +11364,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>688</v>
       </c>
@@ -11374,7 +11378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>688</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>688</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>688</v>
       </c>
@@ -11422,7 +11426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>688</v>
       </c>
@@ -11439,7 +11443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>688</v>
       </c>
@@ -11456,7 +11460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>688</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>688</v>
       </c>
@@ -11490,7 +11494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>688</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>688</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>688</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>688</v>
       </c>
@@ -11555,7 +11559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>688</v>
       </c>
@@ -11572,7 +11576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>688</v>
       </c>
@@ -11589,7 +11593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>688</v>
       </c>
@@ -11606,7 +11610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>688</v>
       </c>
@@ -11623,7 +11627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>688</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>688</v>
       </c>
@@ -11657,7 +11661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>688</v>
       </c>
@@ -11671,7 +11675,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>688</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>688</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>688</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>688</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>688</v>
       </c>
@@ -11741,7 +11745,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>688</v>
       </c>
@@ -11755,7 +11759,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>688</v>
       </c>
@@ -11769,7 +11773,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>688</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>688</v>
       </c>
@@ -11797,7 +11801,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>726</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>689</v>
       </c>
@@ -11828,7 +11832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>726</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>689</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>726</v>
       </c>
@@ -11876,7 +11880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>689</v>
       </c>
@@ -11893,7 +11897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>689</v>
       </c>
@@ -11910,7 +11914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>689</v>
       </c>
@@ -11927,7 +11931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>689</v>
       </c>
@@ -11944,7 +11948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>689</v>
       </c>
@@ -11961,7 +11965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>689</v>
       </c>
@@ -11978,7 +11982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>689</v>
       </c>
@@ -11995,7 +11999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>689</v>
       </c>
@@ -12012,7 +12016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>689</v>
       </c>
@@ -12026,7 +12030,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>689</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>689</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>689</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>689</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>689</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>689</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>689</v>
       </c>
@@ -12124,7 +12128,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>689</v>
       </c>
@@ -12138,7 +12142,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>689</v>
       </c>
@@ -12152,7 +12156,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>725</v>
       </c>
@@ -12166,7 +12170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>690</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>690</v>
       </c>
@@ -12197,7 +12201,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>690</v>
       </c>
@@ -12211,7 +12215,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>690</v>
       </c>
@@ -12228,7 +12232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>690</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>690</v>
       </c>
@@ -12262,7 +12266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>690</v>
       </c>
@@ -12279,7 +12283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>690</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>690</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>690</v>
       </c>
@@ -12327,7 +12331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>690</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>690</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>690</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>690</v>
       </c>
@@ -12386,7 +12390,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>690</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>690</v>
       </c>
@@ -12414,7 +12418,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>690</v>
       </c>
@@ -12428,7 +12432,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>690</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>690</v>
       </c>
@@ -12456,7 +12460,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>690</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>690</v>
       </c>
@@ -12484,7 +12488,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>691</v>
       </c>
@@ -12498,7 +12502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>691</v>
       </c>
@@ -12515,7 +12519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>691</v>
       </c>
@@ -12529,7 +12533,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>691</v>
       </c>
@@ -12543,7 +12547,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>691</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>691</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>691</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>691</v>
       </c>
@@ -12608,7 +12612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>691</v>
       </c>
@@ -12625,7 +12629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>691</v>
       </c>
@@ -12642,7 +12646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>691</v>
       </c>
@@ -12659,7 +12663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>691</v>
       </c>
@@ -12676,7 +12680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>691</v>
       </c>
@@ -12690,7 +12694,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>691</v>
       </c>
@@ -12704,7 +12708,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>691</v>
       </c>
@@ -12718,7 +12722,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>691</v>
       </c>
@@ -12732,7 +12736,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>691</v>
       </c>
@@ -12746,7 +12750,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>691</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>691</v>
       </c>
@@ -12774,7 +12778,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>691</v>
       </c>
@@ -12788,7 +12792,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>691</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>691</v>
       </c>
@@ -12816,7 +12820,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>145</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>145</v>
       </c>
@@ -12844,7 +12848,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>145</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>145</v>
       </c>
@@ -12872,7 +12876,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>145</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>145</v>
       </c>
@@ -12914,7 +12918,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>145</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>145</v>
       </c>
@@ -12942,7 +12946,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>145</v>
       </c>
@@ -12956,7 +12960,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>145</v>
       </c>
@@ -12970,7 +12974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>145</v>
       </c>
@@ -12984,7 +12988,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>145</v>
       </c>
@@ -12998,7 +13002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>145</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>145</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>145</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>145</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>145</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>145</v>
       </c>
@@ -13085,7 +13089,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>145</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>145</v>
       </c>
@@ -13113,7 +13117,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>145</v>
       </c>
@@ -13127,7 +13131,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>145</v>
       </c>
@@ -13141,7 +13145,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>145</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>145</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>145</v>
       </c>
@@ -13183,7 +13187,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>145</v>
       </c>
@@ -13197,7 +13201,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>145</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>145</v>
       </c>
@@ -13225,7 +13229,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>145</v>
       </c>
@@ -13239,7 +13243,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>145</v>
       </c>
@@ -13253,7 +13257,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>145</v>
       </c>
@@ -13267,7 +13271,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>145</v>
       </c>
@@ -13281,7 +13285,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>145</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>145</v>
       </c>
@@ -13309,7 +13313,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>145</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>145</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>145</v>
       </c>
@@ -13351,7 +13355,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>145</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>145</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>145</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>145</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>145</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>145</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>145</v>
       </c>
@@ -13449,7 +13453,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>179</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>179</v>
       </c>
@@ -13477,7 +13481,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>179</v>
       </c>
@@ -13491,7 +13495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>179</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>179</v>
       </c>
@@ -13522,7 +13526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>179</v>
       </c>
@@ -13536,7 +13540,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>179</v>
       </c>
@@ -13550,7 +13554,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>179</v>
       </c>
@@ -13564,7 +13568,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>179</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>179</v>
       </c>
@@ -13595,7 +13599,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>179</v>
       </c>
@@ -13609,7 +13613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>179</v>
       </c>
@@ -13623,7 +13627,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>179</v>
       </c>
@@ -13640,7 +13644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>179</v>
       </c>
@@ -13654,7 +13658,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>179</v>
       </c>
@@ -13671,7 +13675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>179</v>
       </c>
@@ -13685,7 +13689,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>179</v>
       </c>
@@ -13702,7 +13706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>179</v>
       </c>
@@ -13716,7 +13720,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>179</v>
       </c>
@@ -13733,7 +13737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>179</v>
       </c>
@@ -13747,7 +13751,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>179</v>
       </c>
@@ -13761,7 +13765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>179</v>
       </c>
@@ -13775,7 +13779,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>179</v>
       </c>
@@ -13789,7 +13793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>179</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>179</v>
       </c>
@@ -13817,7 +13821,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>179</v>
       </c>
@@ -13831,7 +13835,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>179</v>
       </c>
@@ -13845,7 +13849,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>179</v>
       </c>
@@ -13859,7 +13863,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>179</v>
       </c>
@@ -13873,7 +13877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>758</v>
       </c>
@@ -13887,7 +13891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>235</v>
       </c>
@@ -13904,7 +13908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>235</v>
       </c>
@@ -13921,7 +13925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>235</v>
       </c>
@@ -13935,7 +13939,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>235</v>
       </c>
@@ -13949,7 +13953,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>235</v>
       </c>
@@ -13966,7 +13970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>235</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>235</v>
       </c>
@@ -13994,7 +13998,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>235</v>
       </c>
@@ -14011,7 +14015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>235</v>
       </c>
@@ -14025,7 +14029,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>235</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>235</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>235</v>
       </c>
@@ -14067,7 +14071,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>235</v>
       </c>
@@ -14081,7 +14085,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>235</v>
       </c>
@@ -14095,7 +14099,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>235</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>235</v>
       </c>
@@ -14123,7 +14127,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>235</v>
       </c>
@@ -14140,7 +14144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>235</v>
       </c>
@@ -14157,7 +14161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>235</v>
       </c>
@@ -14171,7 +14175,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>235</v>
       </c>
@@ -14185,7 +14189,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>235</v>
       </c>
@@ -14202,7 +14206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>235</v>
       </c>
@@ -14219,7 +14223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>235</v>
       </c>
@@ -14233,7 +14237,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>235</v>
       </c>
@@ -14247,7 +14251,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>235</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>235</v>
       </c>
@@ -14275,7 +14279,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
         <v>288</v>
       </c>
@@ -14289,7 +14293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>288</v>
       </c>
@@ -14303,7 +14307,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>288</v>
       </c>
@@ -14317,7 +14321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>288</v>
       </c>
@@ -14331,7 +14335,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>288</v>
       </c>
@@ -14345,7 +14349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>288</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>288</v>
       </c>
@@ -14373,7 +14377,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>288</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>288</v>
       </c>
@@ -14401,7 +14405,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>288</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>288</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>288</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>288</v>
       </c>
@@ -14457,7 +14461,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>288</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>288</v>
       </c>
@@ -14485,7 +14489,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>288</v>
       </c>
@@ -14499,7 +14503,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
         <v>315</v>
       </c>
@@ -14513,7 +14517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>315</v>
       </c>
@@ -14527,7 +14531,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>315</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>315</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>315</v>
       </c>
@@ -14569,7 +14573,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>315</v>
       </c>
@@ -14583,7 +14587,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>315</v>
       </c>
@@ -14597,7 +14601,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>315</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>315</v>
       </c>
@@ -14625,7 +14629,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>315</v>
       </c>
@@ -14639,7 +14643,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>315</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>315</v>
       </c>
@@ -14667,7 +14671,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>315</v>
       </c>
@@ -14681,7 +14685,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>315</v>
       </c>
@@ -14695,7 +14699,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>315</v>
       </c>
@@ -14709,7 +14713,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>315</v>
       </c>
@@ -14723,7 +14727,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>315</v>
       </c>
@@ -14737,7 +14741,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>315</v>
       </c>
@@ -14751,7 +14755,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>315</v>
       </c>
@@ -14765,7 +14769,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>315</v>
       </c>
@@ -14779,7 +14783,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>315</v>
       </c>
@@ -14793,7 +14797,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>315</v>
       </c>
@@ -14807,7 +14811,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>315</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>315</v>
       </c>
@@ -14835,7 +14839,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>315</v>
       </c>
@@ -14849,7 +14853,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>315</v>
       </c>

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DC0BA-0A50-4356-871A-5534F992C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF3B60-A790-4567-96F9-944BE0F9BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2580" windowWidth="19545" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2850" windowWidth="19545" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,21 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C68" authorId="1" shapeId="0" xr:uid="{8EF8EFC4-5A40-44A8-93C5-A2FBDD3968D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>下面3个字段(包括自己本身一共4个)都是select选择框</t>
         </r>
       </text>
     </comment>
@@ -245,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="929">
   <si>
     <t>字段名</t>
   </si>
@@ -3366,9 +3381,6 @@
     <t>node_count</t>
   </si>
   <si>
-    <t>main_girder_count</t>
-  </si>
-  <si>
     <t>count_vtc</t>
   </si>
   <si>
@@ -3704,9 +3716,6 @@
     <t>主梁跨中梁高(m)</t>
   </si>
   <si>
-    <t>横隔板材料</t>
-  </si>
-  <si>
     <t>横隔板截面型式</t>
   </si>
   <si>
@@ -3839,6 +3848,34 @@
   </si>
   <si>
     <t>form_vertical</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板截面型式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板长度(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板高度(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_girder_length</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_girder_count</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_girder_width</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4687,8 +4724,8 @@
   <dimension ref="A1:H647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D464" sqref="D464"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5652,7 +5689,7 @@
       <c r="B68" t="s">
         <v>692</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -5693,10 +5730,10 @@
         <v>692</v>
       </c>
       <c r="C70" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E70" t="s">
         <v>723</v>
@@ -5710,7 +5747,7 @@
         <v>692</v>
       </c>
       <c r="C71" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>481</v>
@@ -5727,7 +5764,7 @@
         <v>692</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>928</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>482</v>
@@ -5764,7 +5801,7 @@
         <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>924</v>
       </c>
       <c r="E74" t="s">
         <v>723</v>
@@ -5781,7 +5818,7 @@
         <v>411</v>
       </c>
       <c r="D75" t="s">
-        <v>402</v>
+        <v>925</v>
       </c>
       <c r="E75" t="s">
         <v>723</v>
@@ -5794,11 +5831,11 @@
       <c r="B76" t="s">
         <v>692</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="E76" t="s">
         <v>724</v>
@@ -5818,7 +5855,7 @@
         <v>409</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>401</v>
+        <v>922</v>
       </c>
       <c r="E77" t="s">
         <v>723</v>
@@ -5831,11 +5868,11 @@
       <c r="B78" t="s">
         <v>692</v>
       </c>
-      <c r="C78" t="s">
-        <v>72</v>
+      <c r="C78" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>888</v>
+        <v>421</v>
       </c>
       <c r="E78" t="s">
         <v>723</v>
@@ -5854,8 +5891,8 @@
       <c r="B79" t="s">
         <v>692</v>
       </c>
-      <c r="C79" t="s">
-        <v>86</v>
+      <c r="C79" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>417</v>
@@ -5878,7 +5915,7 @@
         <v>692</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
+        <v>926</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>418</v>
@@ -5895,7 +5932,7 @@
         <v>692</v>
       </c>
       <c r="C81" t="s">
-        <v>796</v>
+        <v>927</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>419</v>
@@ -6204,7 +6241,7 @@
         <v>791</v>
       </c>
       <c r="D101" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E101" t="s">
         <v>723</v>
@@ -6275,7 +6312,7 @@
         <v>790</v>
       </c>
       <c r="D105" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E105" t="s">
         <v>723</v>
@@ -6354,10 +6391,10 @@
         <v>693</v>
       </c>
       <c r="C110" s="51" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E110" t="s">
         <v>726</v>
@@ -6371,10 +6408,10 @@
         <v>693</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E111" t="s">
         <v>726</v>
@@ -6388,10 +6425,10 @@
         <v>693</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E112" t="s">
         <v>726</v>
@@ -6425,7 +6462,7 @@
         <v>789</v>
       </c>
       <c r="D114" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E114" t="s">
         <v>723</v>
@@ -6448,7 +6485,7 @@
         <v>788</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E115" t="s">
         <v>723</v>
@@ -6471,7 +6508,7 @@
         <v>795</v>
       </c>
       <c r="D116" s="46" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E116" t="s">
         <v>723</v>
@@ -6505,7 +6542,7 @@
         <v>792</v>
       </c>
       <c r="D118" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E118" t="s">
         <v>723</v>
@@ -6528,7 +6565,7 @@
         <v>793</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E119" t="s">
         <v>723</v>
@@ -6548,10 +6585,10 @@
         <v>693</v>
       </c>
       <c r="C120" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D120" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E120" t="s">
         <v>723</v>
@@ -6571,7 +6608,7 @@
         <v>794</v>
       </c>
       <c r="D121" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E121" t="s">
         <v>723</v>
@@ -6605,7 +6642,7 @@
         <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E123" t="s">
         <v>723</v>
@@ -6625,10 +6662,10 @@
         <v>693</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E124" t="s">
         <v>726</v>
@@ -6645,10 +6682,10 @@
         <v>693</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E125" t="s">
         <v>726</v>
@@ -6662,10 +6699,10 @@
         <v>693</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E126" t="s">
         <v>726</v>
@@ -6679,10 +6716,10 @@
         <v>693</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E127" t="s">
         <v>726</v>
@@ -6696,10 +6733,10 @@
         <v>693</v>
       </c>
       <c r="C128" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D128" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E128" t="s">
         <v>723</v>
@@ -6747,7 +6784,7 @@
         <v>693</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D131" s="38" t="s">
         <v>668</v>
@@ -6917,7 +6954,7 @@
         <v>694</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>107</v>
@@ -6937,7 +6974,7 @@
         <v>694</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D143" s="34" t="s">
         <v>109</v>
@@ -6954,7 +6991,7 @@
         <v>694</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>110</v>
@@ -6971,7 +7008,7 @@
         <v>694</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>85</v>
@@ -6982,7 +7019,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D146" t="s">
         <v>743</v>
@@ -7008,7 +7045,7 @@
         <v>694</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>111</v>
@@ -7025,7 +7062,7 @@
         <v>694</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>112</v>
@@ -7042,7 +7079,7 @@
         <v>694</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D149" t="s">
         <v>113</v>
@@ -7065,7 +7102,7 @@
         <v>694</v>
       </c>
       <c r="C150" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D150" s="28" t="s">
         <v>747</v>
@@ -7085,7 +7122,7 @@
         <v>694</v>
       </c>
       <c r="C151" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D151" t="s">
         <v>754</v>
@@ -7102,7 +7139,7 @@
         <v>694</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D152" t="s">
         <v>402</v>
@@ -7119,7 +7156,7 @@
         <v>694</v>
       </c>
       <c r="C153" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D153" t="s">
         <v>401</v>
@@ -7136,7 +7173,7 @@
         <v>694</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>114</v>
@@ -7153,10 +7190,10 @@
         <v>694</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D155" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E155" t="s">
         <v>723</v>
@@ -7176,10 +7213,10 @@
         <v>694</v>
       </c>
       <c r="C156" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D156" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E156" t="s">
         <v>723</v>
@@ -7199,7 +7236,7 @@
         <v>694</v>
       </c>
       <c r="C157" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D157" t="s">
         <v>463</v>
@@ -7216,7 +7253,7 @@
         <v>694</v>
       </c>
       <c r="C158" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D158" t="s">
         <v>115</v>
@@ -7233,7 +7270,7 @@
         <v>694</v>
       </c>
       <c r="C159" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D159" t="s">
         <v>464</v>
@@ -7250,7 +7287,7 @@
         <v>694</v>
       </c>
       <c r="C160" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D160" t="s">
         <v>424</v>
@@ -7267,10 +7304,10 @@
         <v>694</v>
       </c>
       <c r="C161" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D161" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E161" t="s">
         <v>723</v>
@@ -7293,7 +7330,7 @@
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E162" t="s">
         <v>723</v>
@@ -7321,7 +7358,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D164" t="s">
         <v>752</v>
@@ -7341,10 +7378,10 @@
         <v>694</v>
       </c>
       <c r="C165" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D165" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E165" t="s">
         <v>723</v>
@@ -7358,7 +7395,7 @@
         <v>694</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D166" t="s">
         <v>426</v>
@@ -7375,10 +7412,10 @@
         <v>694</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E167" t="s">
         <v>726</v>
@@ -7386,7 +7423,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D168" t="s">
         <v>420</v>
@@ -7420,10 +7457,10 @@
         <v>694</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E170" t="s">
         <v>726</v>
@@ -7437,10 +7474,10 @@
         <v>694</v>
       </c>
       <c r="C171" s="45" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E171" t="s">
         <v>726</v>
@@ -7471,10 +7508,10 @@
         <v>694</v>
       </c>
       <c r="C173" s="44" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D173" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E173" t="s">
         <v>726</v>
@@ -7491,10 +7528,10 @@
         <v>694</v>
       </c>
       <c r="C174" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D174" s="43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E174" t="s">
         <v>726</v>
@@ -7508,10 +7545,10 @@
         <v>694</v>
       </c>
       <c r="C175" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D175" s="43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E175" t="s">
         <v>726</v>
@@ -7525,10 +7562,10 @@
         <v>694</v>
       </c>
       <c r="C176" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D176" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E176" t="s">
         <v>726</v>
@@ -7542,7 +7579,7 @@
         <v>694</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D177" s="34" t="s">
         <v>118</v>
@@ -7559,10 +7596,10 @@
         <v>694</v>
       </c>
       <c r="C178" s="44" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D178" s="43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E178" t="s">
         <v>726</v>
@@ -7579,7 +7616,7 @@
         <v>694</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D179" s="34" t="s">
         <v>119</v>
@@ -7596,7 +7633,7 @@
         <v>694</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>120</v>
@@ -7613,10 +7650,10 @@
         <v>694</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D181" s="43" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E181" t="s">
         <v>726</v>
@@ -7630,7 +7667,7 @@
         <v>694</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D182" s="34" t="s">
         <v>121</v>
@@ -7893,7 +7930,7 @@
         <v>695</v>
       </c>
       <c r="C198" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>390</v>
@@ -7950,7 +7987,7 @@
         <v>695</v>
       </c>
       <c r="C201" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D201" t="s">
         <v>759</v>
@@ -7984,7 +8021,7 @@
         <v>695</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>380</v>
@@ -8004,7 +8041,7 @@
         <v>695</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D204" s="52" t="s">
         <v>391</v>
@@ -8067,7 +8104,7 @@
         <v>397</v>
       </c>
       <c r="D207" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E207" t="s">
         <v>723</v>
@@ -8081,7 +8118,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D208" t="s">
         <v>752</v>
@@ -8413,7 +8450,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D228" t="s">
         <v>752</v>
@@ -8467,7 +8504,7 @@
         <v>696</v>
       </c>
       <c r="C231" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D231" t="s">
         <v>660</v>
@@ -8496,7 +8533,7 @@
         <v>28</v>
       </c>
       <c r="H232" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -8550,7 +8587,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
@@ -8810,7 +8847,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>697</v>
@@ -8833,7 +8870,7 @@
         <v>697</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>453</v>
@@ -8856,7 +8893,7 @@
         <v>697</v>
       </c>
       <c r="C254" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D254" t="s">
         <v>454</v>
@@ -8899,7 +8936,7 @@
         <v>433</v>
       </c>
       <c r="D256" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E256" t="s">
         <v>723</v>
@@ -9001,7 +9038,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D262" t="s">
         <v>752</v>
@@ -9033,7 +9070,7 @@
         <v>28</v>
       </c>
       <c r="H263" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -9084,7 +9121,7 @@
         <v>438</v>
       </c>
       <c r="D266" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E266" t="s">
         <v>723</v>
@@ -9393,7 +9430,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D285" t="s">
         <v>743</v>
@@ -9479,7 +9516,7 @@
         <v>469</v>
       </c>
       <c r="D289" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E289" t="s">
         <v>723</v>
@@ -9576,7 +9613,7 @@
         <v>472</v>
       </c>
       <c r="D294" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E294" t="s">
         <v>723</v>
@@ -9647,10 +9684,10 @@
         <v>698</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E298" t="s">
         <v>726</v>
@@ -9701,7 +9738,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D301" t="s">
         <v>752</v>
@@ -9721,7 +9758,7 @@
         <v>698</v>
       </c>
       <c r="C302" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D302" t="s">
         <v>427</v>
@@ -9738,7 +9775,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D303" t="s">
         <v>772</v>
@@ -9758,7 +9795,7 @@
         <v>698</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>465</v>
@@ -9775,10 +9812,10 @@
         <v>698</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -9789,10 +9826,10 @@
         <v>698</v>
       </c>
       <c r="C306" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="D306" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -9803,10 +9840,10 @@
         <v>698</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -9817,10 +9854,10 @@
         <v>698</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -9831,10 +9868,10 @@
         <v>698</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -9865,7 +9902,7 @@
         <v>698</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>428</v>
@@ -9885,7 +9922,7 @@
         <v>478</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E312" t="s">
         <v>726</v>
@@ -10223,7 +10260,7 @@
         <v>699</v>
       </c>
       <c r="C332" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D332" t="s">
         <v>482</v>
@@ -10274,7 +10311,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C335" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D335" t="s">
         <v>752</v>
@@ -10297,7 +10334,7 @@
         <v>410</v>
       </c>
       <c r="D336" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E336" t="s">
         <v>723</v>
@@ -10549,7 +10586,7 @@
         <v>649</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C352" t="s">
         <v>513</v>
@@ -10755,7 +10792,7 @@
         <v>700</v>
       </c>
       <c r="C365" s="33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D365" s="31" t="s">
         <v>667</v>
@@ -10766,7 +10803,7 @@
         <v>649</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C366" s="54" t="s">
         <v>678</v>
@@ -10892,7 +10929,7 @@
         <v>650</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C376" t="s">
         <v>60</v>
@@ -11107,7 +11144,7 @@
         <v>701</v>
       </c>
       <c r="C389" s="33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D389" s="53" t="s">
         <v>667</v>
@@ -11244,7 +11281,7 @@
         <v>651</v>
       </c>
       <c r="B400" s="23" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C400" t="s">
         <v>60</v>
@@ -11411,7 +11448,7 @@
         <v>538</v>
       </c>
       <c r="D410" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G410" t="s">
         <v>28</v>
@@ -11681,7 +11718,7 @@
         <v>652</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C429" t="s">
         <v>60</v>
@@ -11899,7 +11936,7 @@
         <v>703</v>
       </c>
       <c r="C442" s="33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D442" s="53" t="s">
         <v>667</v>
@@ -12036,7 +12073,7 @@
         <v>653</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C453" t="s">
         <v>60</v>
@@ -12146,7 +12183,7 @@
         <v>545</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
@@ -12376,7 +12413,7 @@
         <v>654</v>
       </c>
       <c r="B477" s="23" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C477" t="s">
         <v>60</v>
@@ -12410,7 +12447,7 @@
         <v>705</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D479" t="s">
         <v>570</v>
@@ -12424,7 +12461,7 @@
         <v>705</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D480" t="s">
         <v>571</v>
@@ -12472,7 +12509,7 @@
         <v>538</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF3B60-A790-4567-96F9-944BE0F9BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB544888-47F3-4081-A5E6-A852EACA8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2850" windowWidth="19545" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="929">
   <si>
     <t>字段名</t>
   </si>
@@ -4724,8 +4724,8 @@
   <dimension ref="A1:H647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B654" sqref="B654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8117,6 +8117,9 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>695</v>
+      </c>
       <c r="C208" t="s">
         <v>816</v>
       </c>
@@ -8148,6 +8151,9 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>695</v>
+      </c>
       <c r="C210" t="s">
         <v>58</v>
       </c>
@@ -8449,6 +8455,9 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>696</v>
+      </c>
       <c r="C228" t="s">
         <v>816</v>
       </c>
@@ -8554,6 +8563,9 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>696</v>
+      </c>
       <c r="C234" t="s">
         <v>58</v>
       </c>
@@ -8983,6 +8995,9 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>697</v>
+      </c>
       <c r="C259" t="s">
         <v>58</v>
       </c>
@@ -9037,6 +9052,9 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>697</v>
+      </c>
       <c r="C262" t="s">
         <v>816</v>
       </c>
@@ -9429,6 +9447,9 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>698</v>
+      </c>
       <c r="C285" t="s">
         <v>845</v>
       </c>
@@ -9737,6 +9758,9 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>698</v>
+      </c>
       <c r="C301" t="s">
         <v>816</v>
       </c>
@@ -9774,6 +9798,9 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>698</v>
+      </c>
       <c r="C303" t="s">
         <v>817</v>
       </c>
@@ -10310,6 +10337,9 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>699</v>
+      </c>
       <c r="C335" t="s">
         <v>816</v>
       </c>
@@ -10347,6 +10377,9 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>699</v>
+      </c>
       <c r="C337" t="s">
         <v>58</v>
       </c>
@@ -12179,6 +12212,9 @@
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B460" t="s">
+        <v>704</v>
+      </c>
       <c r="C460" s="7" t="s">
         <v>545</v>
       </c>

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB544888-47F3-4081-A5E6-A852EACA8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4748D-4560-43E3-AD63-93277F4006D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1320" windowWidth="21630" windowHeight="15090" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="B400" authorId="0" shapeId="0" xr:uid="{C32D8B73-0C8C-4F65-8274-0B7FB4A24F07}">
+    <comment ref="D388" authorId="1" shapeId="0" xr:uid="{8AF632A3-371F-4F83-86D3-073AF4779489}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>前端对接的时候发现后端漏掉了这个字段，后来才加上。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B401" authorId="0" shapeId="0" xr:uid="{C32D8B73-0C8C-4F65-8274-0B7FB4A24F07}">
       <text>
         <r>
           <rPr>
@@ -188,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B429" authorId="0" shapeId="0" xr:uid="{C7010E88-7161-4797-8E10-9960E146B4C0}">
+    <comment ref="B430" authorId="0" shapeId="0" xr:uid="{C7010E88-7161-4797-8E10-9960E146B4C0}">
       <text>
         <r>
           <rPr>
@@ -202,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B453" authorId="0" shapeId="0" xr:uid="{5D0E2CB7-D5FB-4E80-8F1E-D5A555A8DF66}">
+    <comment ref="B454" authorId="0" shapeId="0" xr:uid="{5D0E2CB7-D5FB-4E80-8F1E-D5A555A8DF66}">
       <text>
         <r>
           <rPr>
@@ -216,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C454" authorId="1" shapeId="0" xr:uid="{26593D68-268D-4A9E-AF8E-94121472E8BA}">
+    <comment ref="C455" authorId="1" shapeId="0" xr:uid="{26593D68-268D-4A9E-AF8E-94121472E8BA}">
       <text>
         <r>
           <rPr>
@@ -231,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B477" authorId="0" shapeId="0" xr:uid="{CE2A2A41-47D2-4215-8548-D04DE9D77AA2}">
+    <comment ref="B478" authorId="0" shapeId="0" xr:uid="{CE2A2A41-47D2-4215-8548-D04DE9D77AA2}">
       <text>
         <r>
           <rPr>
@@ -255,12 +270,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D488" authorId="1" shapeId="0" xr:uid="{15B197AC-29AA-4B87-9C50-3BBA85874A67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>前端对接时候发现后端没有这个字段。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="934">
   <si>
     <t>字段名</t>
   </si>
@@ -3876,6 +3917,26 @@
   </si>
   <si>
     <t>top_girder_width</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桥面板截面形式 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiffening_beam_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_saddle_form</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>索鞍形式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加劲梁类型</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4721,11 +4782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H647"/>
+  <dimension ref="A1:H650"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B654" sqref="B654"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11153,20 +11214,14 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>650</v>
-      </c>
       <c r="B388" t="s">
         <v>701</v>
       </c>
-      <c r="C388" t="s">
-        <v>526</v>
-      </c>
-      <c r="D388" t="s">
-        <v>512</v>
-      </c>
-      <c r="G388" t="s">
-        <v>28</v>
+      <c r="C388" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -11176,11 +11231,14 @@
       <c r="B389" t="s">
         <v>701</v>
       </c>
-      <c r="C389" s="33" t="s">
-        <v>917</v>
-      </c>
-      <c r="D389" s="53" t="s">
-        <v>667</v>
+      <c r="C389" t="s">
+        <v>526</v>
+      </c>
+      <c r="D389" t="s">
+        <v>512</v>
+      </c>
+      <c r="G389" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -11191,10 +11249,10 @@
         <v>701</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>678</v>
+        <v>917</v>
       </c>
       <c r="D390" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -11205,10 +11263,10 @@
         <v>701</v>
       </c>
       <c r="C391" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D391" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -11219,10 +11277,10 @@
         <v>701</v>
       </c>
       <c r="C392" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D392" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -11233,10 +11291,10 @@
         <v>701</v>
       </c>
       <c r="C393" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D393" s="53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
@@ -11247,10 +11305,10 @@
         <v>701</v>
       </c>
       <c r="C394" s="33" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D394" s="53" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -11261,10 +11319,10 @@
         <v>701</v>
       </c>
       <c r="C395" s="33" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D395" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -11275,10 +11333,10 @@
         <v>701</v>
       </c>
       <c r="C396" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D396" s="53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -11289,10 +11347,10 @@
         <v>701</v>
       </c>
       <c r="C397" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D397" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
@@ -11303,38 +11361,38 @@
         <v>701</v>
       </c>
       <c r="C398" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="D398" s="53" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>650</v>
+      </c>
+      <c r="B399" t="s">
+        <v>701</v>
+      </c>
+      <c r="C399" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="D398" s="53" t="s">
+      <c r="D399" s="53" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" s="4" t="s">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="B400" s="23" t="s">
+      <c r="B401" s="23" t="s">
         <v>913</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C401" t="s">
         <v>60</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D401" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>651</v>
-      </c>
-      <c r="B401" t="s">
-        <v>702</v>
-      </c>
-      <c r="C401" t="s">
-        <v>534</v>
-      </c>
-      <c r="D401" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
@@ -11344,14 +11402,11 @@
       <c r="B402" t="s">
         <v>702</v>
       </c>
-      <c r="C402" s="4" t="s">
-        <v>536</v>
+      <c r="C402" t="s">
+        <v>534</v>
       </c>
       <c r="D402" t="s">
-        <v>535</v>
-      </c>
-      <c r="G402" t="s">
-        <v>28</v>
+        <v>533</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -11361,11 +11416,11 @@
       <c r="B403" t="s">
         <v>702</v>
       </c>
-      <c r="C403" t="s">
-        <v>537</v>
+      <c r="C403" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="D403" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G403" t="s">
         <v>28</v>
@@ -11379,10 +11434,10 @@
         <v>702</v>
       </c>
       <c r="C404" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D404" t="s">
-        <v>657</v>
+        <v>528</v>
       </c>
       <c r="G404" t="s">
         <v>28</v>
@@ -11395,11 +11450,11 @@
       <c r="B405" t="s">
         <v>702</v>
       </c>
-      <c r="C405" s="4" t="s">
-        <v>459</v>
+      <c r="C405" t="s">
+        <v>540</v>
       </c>
       <c r="D405" t="s">
-        <v>546</v>
+        <v>657</v>
       </c>
       <c r="G405" t="s">
         <v>28</v>
@@ -11412,11 +11467,11 @@
       <c r="B406" t="s">
         <v>702</v>
       </c>
-      <c r="C406" t="s">
-        <v>526</v>
+      <c r="C406" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D406" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="G406" t="s">
         <v>28</v>
@@ -11429,11 +11484,11 @@
       <c r="B407" t="s">
         <v>702</v>
       </c>
-      <c r="C407" s="4" t="s">
-        <v>515</v>
+      <c r="C407" t="s">
+        <v>526</v>
       </c>
       <c r="D407" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G407" t="s">
         <v>28</v>
@@ -11446,11 +11501,11 @@
       <c r="B408" t="s">
         <v>702</v>
       </c>
-      <c r="C408" t="s">
-        <v>516</v>
+      <c r="C408" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="D408" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="G408" t="s">
         <v>28</v>
@@ -11464,10 +11519,13 @@
         <v>702</v>
       </c>
       <c r="C409" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D409" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+      <c r="G409" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
@@ -11477,14 +11535,11 @@
       <c r="B410" t="s">
         <v>702</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>538</v>
+      <c r="C410" t="s">
+        <v>517</v>
       </c>
       <c r="D410" t="s">
-        <v>918</v>
-      </c>
-      <c r="G410" t="s">
-        <v>28</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -11494,11 +11549,11 @@
       <c r="B411" t="s">
         <v>702</v>
       </c>
-      <c r="C411" t="s">
-        <v>539</v>
+      <c r="C411" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="D411" t="s">
-        <v>531</v>
+        <v>918</v>
       </c>
       <c r="G411" t="s">
         <v>28</v>
@@ -11512,10 +11567,10 @@
         <v>702</v>
       </c>
       <c r="C412" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D412" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G412" t="s">
         <v>28</v>
@@ -11528,11 +11583,11 @@
       <c r="B413" t="s">
         <v>702</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>522</v>
+      <c r="C413" t="s">
+        <v>541</v>
       </c>
       <c r="D413" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="G413" t="s">
         <v>28</v>
@@ -11545,11 +11600,11 @@
       <c r="B414" t="s">
         <v>702</v>
       </c>
-      <c r="C414" t="s">
-        <v>523</v>
+      <c r="C414" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="D414" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G414" t="s">
         <v>28</v>
@@ -11562,11 +11617,11 @@
       <c r="B415" t="s">
         <v>702</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>524</v>
+      <c r="C415" t="s">
+        <v>523</v>
       </c>
       <c r="D415" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G415" t="s">
         <v>28</v>
@@ -11579,11 +11634,11 @@
       <c r="B416" t="s">
         <v>702</v>
       </c>
-      <c r="C416" s="12" t="s">
-        <v>525</v>
+      <c r="C416" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="D416" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G416" t="s">
         <v>28</v>
@@ -11596,11 +11651,11 @@
       <c r="B417" t="s">
         <v>702</v>
       </c>
-      <c r="C417" t="s">
-        <v>689</v>
+      <c r="C417" s="12" t="s">
+        <v>525</v>
       </c>
       <c r="D417" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G417" t="s">
         <v>28</v>
@@ -11613,11 +11668,14 @@
       <c r="B418" t="s">
         <v>702</v>
       </c>
-      <c r="C418" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="D418" s="53" t="s">
-        <v>667</v>
+      <c r="C418" t="s">
+        <v>689</v>
+      </c>
+      <c r="D418" t="s">
+        <v>503</v>
+      </c>
+      <c r="G418" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
@@ -11628,10 +11686,10 @@
         <v>702</v>
       </c>
       <c r="C419" s="33" t="s">
-        <v>678</v>
+        <v>346</v>
       </c>
       <c r="D419" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
@@ -11642,10 +11700,10 @@
         <v>702</v>
       </c>
       <c r="C420" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D420" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
@@ -11656,10 +11714,10 @@
         <v>702</v>
       </c>
       <c r="C421" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D421" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
@@ -11670,10 +11728,10 @@
         <v>702</v>
       </c>
       <c r="C422" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D422" s="53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
@@ -11684,10 +11742,10 @@
         <v>702</v>
       </c>
       <c r="C423" s="33" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D423" s="53" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
@@ -11698,10 +11756,10 @@
         <v>702</v>
       </c>
       <c r="C424" s="33" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D424" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
@@ -11712,10 +11770,10 @@
         <v>702</v>
       </c>
       <c r="C425" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D425" s="53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
@@ -11726,10 +11784,10 @@
         <v>702</v>
       </c>
       <c r="C426" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D426" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
@@ -11740,55 +11798,52 @@
         <v>702</v>
       </c>
       <c r="C427" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="D427" s="53" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>651</v>
+      </c>
+      <c r="B428" t="s">
+        <v>702</v>
+      </c>
+      <c r="C428" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="53" t="s">
+      <c r="D428" s="53" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" s="4" t="s">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A430" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B429" s="23" t="s">
+      <c r="B430" s="23" t="s">
         <v>914</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C430" t="s">
         <v>60</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D430" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>652</v>
-      </c>
-      <c r="B430" t="s">
-        <v>703</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D430" t="s">
-        <v>500</v>
-      </c>
-      <c r="G430" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B431" t="s">
         <v>703</v>
       </c>
-      <c r="C431" t="s">
-        <v>516</v>
+      <c r="C431" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="D431" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
       <c r="G431" t="s">
         <v>28</v>
@@ -11796,47 +11851,47 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="B432" t="s">
         <v>703</v>
       </c>
       <c r="C432" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D432" t="s">
-        <v>502</v>
+        <v>542</v>
+      </c>
+      <c r="G432" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B433" t="s">
         <v>703</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>522</v>
+      <c r="C433" t="s">
+        <v>517</v>
       </c>
       <c r="D433" t="s">
-        <v>507</v>
-      </c>
-      <c r="G433" t="s">
-        <v>28</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="B434" t="s">
         <v>703</v>
       </c>
-      <c r="C434" t="s">
-        <v>523</v>
+      <c r="C434" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="D434" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G434" t="s">
         <v>28</v>
@@ -11849,11 +11904,11 @@
       <c r="B435" t="s">
         <v>703</v>
       </c>
-      <c r="C435" s="4" t="s">
-        <v>538</v>
+      <c r="C435" t="s">
+        <v>523</v>
       </c>
       <c r="D435" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="G435" t="s">
         <v>28</v>
@@ -11866,11 +11921,11 @@
       <c r="B436" t="s">
         <v>703</v>
       </c>
-      <c r="C436" t="s">
-        <v>545</v>
+      <c r="C436" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="D436" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G436" t="s">
         <v>28</v>
@@ -11883,11 +11938,11 @@
       <c r="B437" t="s">
         <v>703</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>536</v>
+      <c r="C437" t="s">
+        <v>545</v>
       </c>
       <c r="D437" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="G437" t="s">
         <v>28</v>
@@ -11900,11 +11955,11 @@
       <c r="B438" t="s">
         <v>703</v>
       </c>
-      <c r="C438" t="s">
-        <v>537</v>
+      <c r="C438" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="D438" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G438" t="s">
         <v>28</v>
@@ -11918,10 +11973,10 @@
         <v>703</v>
       </c>
       <c r="C439" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D439" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G439" t="s">
         <v>28</v>
@@ -11934,11 +11989,11 @@
       <c r="B440" t="s">
         <v>703</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>459</v>
+      <c r="C440" t="s">
+        <v>540</v>
       </c>
       <c r="D440" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="G440" t="s">
         <v>28</v>
@@ -11951,11 +12006,11 @@
       <c r="B441" t="s">
         <v>703</v>
       </c>
-      <c r="C441" t="s">
-        <v>495</v>
+      <c r="C441" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D441" t="s">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="G441" t="s">
         <v>28</v>
@@ -11968,11 +12023,14 @@
       <c r="B442" t="s">
         <v>703</v>
       </c>
-      <c r="C442" s="33" t="s">
-        <v>917</v>
-      </c>
-      <c r="D442" s="53" t="s">
-        <v>667</v>
+      <c r="C442" t="s">
+        <v>495</v>
+      </c>
+      <c r="D442" t="s">
+        <v>544</v>
+      </c>
+      <c r="G442" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
@@ -11983,10 +12041,10 @@
         <v>703</v>
       </c>
       <c r="C443" s="33" t="s">
-        <v>678</v>
+        <v>917</v>
       </c>
       <c r="D443" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
@@ -11997,10 +12055,10 @@
         <v>703</v>
       </c>
       <c r="C444" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D444" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
@@ -12011,10 +12069,10 @@
         <v>703</v>
       </c>
       <c r="C445" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D445" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
@@ -12025,10 +12083,10 @@
         <v>703</v>
       </c>
       <c r="C446" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D446" s="53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
@@ -12039,10 +12097,10 @@
         <v>703</v>
       </c>
       <c r="C447" s="33" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D447" s="53" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
@@ -12053,10 +12111,10 @@
         <v>703</v>
       </c>
       <c r="C448" s="33" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D448" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
@@ -12067,10 +12125,10 @@
         <v>703</v>
       </c>
       <c r="C449" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D449" s="53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
@@ -12081,10 +12139,10 @@
         <v>703</v>
       </c>
       <c r="C450" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D450" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
@@ -12095,41 +12153,38 @@
         <v>703</v>
       </c>
       <c r="C451" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="D451" s="53" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>652</v>
+      </c>
+      <c r="B452" t="s">
+        <v>703</v>
+      </c>
+      <c r="C452" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="D451" s="53" t="s">
+      <c r="D452" s="53" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A453" s="4" t="s">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="B453" s="23" t="s">
+      <c r="B454" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>60</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D454" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>653</v>
-      </c>
-      <c r="B454" t="s">
-        <v>704</v>
-      </c>
-      <c r="C454" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D454" t="s">
-        <v>557</v>
-      </c>
-      <c r="G454" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
@@ -12140,10 +12195,13 @@
         <v>704</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D455" t="s">
-        <v>559</v>
+        <v>557</v>
+      </c>
+      <c r="G455" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
@@ -12154,10 +12212,10 @@
         <v>704</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D456" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
@@ -12168,13 +12226,10 @@
         <v>704</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D457" t="s">
-        <v>562</v>
-      </c>
-      <c r="G457" t="s">
-        <v>28</v>
+        <v>548</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
@@ -12184,11 +12239,11 @@
       <c r="B458" t="s">
         <v>704</v>
       </c>
-      <c r="C458" t="s">
-        <v>564</v>
+      <c r="C458" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="D458" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G458" t="s">
         <v>28</v>
@@ -12202,41 +12257,41 @@
         <v>704</v>
       </c>
       <c r="C459" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D459" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="G459" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>653</v>
+      </c>
       <c r="B460" t="s">
         <v>704</v>
       </c>
-      <c r="C460" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D460" s="4" t="s">
-        <v>919</v>
+      <c r="C460" t="s">
+        <v>565</v>
+      </c>
+      <c r="D460" t="s">
+        <v>551</v>
+      </c>
+      <c r="G460" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>653</v>
-      </c>
       <c r="B461" t="s">
         <v>704</v>
       </c>
-      <c r="C461" t="s">
-        <v>566</v>
-      </c>
-      <c r="D461" t="s">
-        <v>550</v>
-      </c>
-      <c r="G461" t="s">
-        <v>28</v>
+      <c r="C461" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -12247,10 +12302,10 @@
         <v>704</v>
       </c>
       <c r="C462" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D462" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G462" t="s">
         <v>28</v>
@@ -12263,11 +12318,14 @@
       <c r="B463" t="s">
         <v>704</v>
       </c>
-      <c r="C463" s="4" t="s">
-        <v>578</v>
+      <c r="C463" t="s">
+        <v>567</v>
       </c>
       <c r="D463" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="G463" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
@@ -12278,13 +12336,10 @@
         <v>704</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="D464" t="s">
-        <v>554</v>
-      </c>
-      <c r="G464" t="s">
-        <v>28</v>
+        <v>553</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
@@ -12294,11 +12349,11 @@
       <c r="B465" t="s">
         <v>704</v>
       </c>
-      <c r="C465" t="s">
-        <v>569</v>
+      <c r="C465" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="D465" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G465" t="s">
         <v>28</v>
@@ -12311,11 +12366,14 @@
       <c r="B466" t="s">
         <v>704</v>
       </c>
-      <c r="C466" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="D466" s="53" t="s">
-        <v>667</v>
+      <c r="C466" t="s">
+        <v>569</v>
+      </c>
+      <c r="D466" t="s">
+        <v>555</v>
+      </c>
+      <c r="G466" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
@@ -12326,10 +12384,10 @@
         <v>704</v>
       </c>
       <c r="C467" s="33" t="s">
-        <v>678</v>
+        <v>346</v>
       </c>
       <c r="D467" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
@@ -12340,10 +12398,10 @@
         <v>704</v>
       </c>
       <c r="C468" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D468" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
@@ -12354,10 +12412,10 @@
         <v>704</v>
       </c>
       <c r="C469" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D469" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
@@ -12368,10 +12426,10 @@
         <v>704</v>
       </c>
       <c r="C470" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D470" s="53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
@@ -12382,10 +12440,10 @@
         <v>704</v>
       </c>
       <c r="C471" s="33" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D471" s="53" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
@@ -12396,10 +12454,10 @@
         <v>704</v>
       </c>
       <c r="C472" s="33" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D472" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
@@ -12410,10 +12468,10 @@
         <v>704</v>
       </c>
       <c r="C473" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D473" s="53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
@@ -12424,10 +12482,10 @@
         <v>704</v>
       </c>
       <c r="C474" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D474" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
@@ -12438,41 +12496,38 @@
         <v>704</v>
       </c>
       <c r="C475" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="D475" s="53" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>653</v>
+      </c>
+      <c r="B476" t="s">
+        <v>704</v>
+      </c>
+      <c r="C476" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="D475" s="53" t="s">
+      <c r="D476" s="53" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A477" s="4" t="s">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="B477" s="23" t="s">
+      <c r="B478" s="23" t="s">
         <v>916</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C478" t="s">
         <v>60</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D478" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
-        <v>654</v>
-      </c>
-      <c r="B478" t="s">
-        <v>705</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D478" t="s">
-        <v>547</v>
-      </c>
-      <c r="G478" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
@@ -12483,10 +12538,13 @@
         <v>705</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>920</v>
+        <v>558</v>
       </c>
       <c r="D479" t="s">
-        <v>570</v>
+        <v>547</v>
+      </c>
+      <c r="G479" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
@@ -12497,10 +12555,10 @@
         <v>705</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D480" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
@@ -12511,13 +12569,10 @@
         <v>705</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>576</v>
+        <v>921</v>
       </c>
       <c r="D481" t="s">
-        <v>575</v>
-      </c>
-      <c r="G481" t="s">
-        <v>28</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
@@ -12528,10 +12583,13 @@
         <v>705</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D482" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="G482" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
@@ -12542,10 +12600,10 @@
         <v>705</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>918</v>
+        <v>577</v>
+      </c>
+      <c r="D483" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
@@ -12555,14 +12613,11 @@
       <c r="B484" t="s">
         <v>705</v>
       </c>
-      <c r="C484" t="s">
-        <v>545</v>
-      </c>
-      <c r="D484" t="s">
-        <v>543</v>
-      </c>
-      <c r="G484" t="s">
-        <v>28</v>
+      <c r="C484" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
@@ -12573,10 +12628,10 @@
         <v>705</v>
       </c>
       <c r="C485" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D485" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="G485" t="s">
         <v>28</v>
@@ -12589,11 +12644,11 @@
       <c r="B486" t="s">
         <v>705</v>
       </c>
-      <c r="C486" s="4" t="s">
-        <v>563</v>
+      <c r="C486" t="s">
+        <v>581</v>
       </c>
       <c r="D486" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="G486" t="s">
         <v>28</v>
@@ -12607,13 +12662,10 @@
         <v>705</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D487" t="s">
-        <v>579</v>
-      </c>
-      <c r="G487" t="s">
-        <v>28</v>
+        <v>931</v>
+      </c>
+      <c r="D487" s="16" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
@@ -12623,14 +12675,11 @@
       <c r="B488" t="s">
         <v>705</v>
       </c>
-      <c r="C488" t="s">
-        <v>582</v>
-      </c>
-      <c r="D488" t="s">
-        <v>574</v>
-      </c>
-      <c r="G488" t="s">
-        <v>28</v>
+      <c r="C488" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D488" s="16" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
@@ -12641,10 +12690,10 @@
         <v>705</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="D489" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
       <c r="G489" t="s">
         <v>28</v>
@@ -12657,11 +12706,14 @@
       <c r="B490" t="s">
         <v>705</v>
       </c>
-      <c r="C490" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="D490" s="53" t="s">
-        <v>667</v>
+      <c r="C490" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D490" t="s">
+        <v>579</v>
+      </c>
+      <c r="G490" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
@@ -12671,11 +12723,14 @@
       <c r="B491" t="s">
         <v>705</v>
       </c>
-      <c r="C491" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="D491" s="55" t="s">
-        <v>668</v>
+      <c r="C491" t="s">
+        <v>582</v>
+      </c>
+      <c r="D491" t="s">
+        <v>574</v>
+      </c>
+      <c r="G491" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
@@ -12685,11 +12740,14 @@
       <c r="B492" t="s">
         <v>705</v>
       </c>
-      <c r="C492" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="D492" s="56" t="s">
-        <v>669</v>
+      <c r="C492" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D492" t="s">
+        <v>583</v>
+      </c>
+      <c r="G492" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
@@ -12700,10 +12758,10 @@
         <v>705</v>
       </c>
       <c r="C493" s="33" t="s">
-        <v>680</v>
+        <v>346</v>
       </c>
       <c r="D493" s="53" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
@@ -12714,10 +12772,10 @@
         <v>705</v>
       </c>
       <c r="C494" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="D494" s="56" t="s">
-        <v>671</v>
+        <v>678</v>
+      </c>
+      <c r="D494" s="55" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
@@ -12728,10 +12786,10 @@
         <v>705</v>
       </c>
       <c r="C495" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="D495" s="53" t="s">
-        <v>672</v>
+        <v>679</v>
+      </c>
+      <c r="D495" s="56" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
@@ -12742,10 +12800,10 @@
         <v>705</v>
       </c>
       <c r="C496" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D496" s="53" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -12756,10 +12814,10 @@
         <v>705</v>
       </c>
       <c r="C497" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="D497" s="53" t="s">
-        <v>674</v>
+        <v>681</v>
+      </c>
+      <c r="D497" s="56" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -12770,10 +12828,10 @@
         <v>705</v>
       </c>
       <c r="C498" s="33" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D498" s="53" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -12784,52 +12842,52 @@
         <v>705</v>
       </c>
       <c r="C499" s="33" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D499" s="53" t="s">
-        <v>676</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>654</v>
+      </c>
+      <c r="B500" t="s">
+        <v>705</v>
+      </c>
+      <c r="C500" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="D500" s="53" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>122</v>
+        <v>654</v>
       </c>
       <c r="B501" t="s">
-        <v>706</v>
-      </c>
-      <c r="C501" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="D501" t="s">
-        <v>611</v>
+        <v>705</v>
+      </c>
+      <c r="C501" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="D501" s="53" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>122</v>
+        <v>654</v>
       </c>
       <c r="B502" t="s">
-        <v>706</v>
-      </c>
-      <c r="C502" t="s">
-        <v>123</v>
-      </c>
-      <c r="D502" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>122</v>
-      </c>
-      <c r="B503" t="s">
-        <v>706</v>
-      </c>
-      <c r="C503" t="s">
-        <v>125</v>
-      </c>
-      <c r="D503" t="s">
-        <v>126</v>
+        <v>705</v>
+      </c>
+      <c r="C502" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="D502" s="53" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -12839,11 +12897,11 @@
       <c r="B504" t="s">
         <v>706</v>
       </c>
-      <c r="C504" t="s">
-        <v>127</v>
+      <c r="C504" s="8" t="s">
+        <v>612</v>
       </c>
       <c r="D504" t="s">
-        <v>128</v>
+        <v>611</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -12853,11 +12911,11 @@
       <c r="B505" t="s">
         <v>706</v>
       </c>
-      <c r="C505" s="8" t="s">
-        <v>129</v>
+      <c r="C505" t="s">
+        <v>123</v>
       </c>
       <c r="D505" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -12868,10 +12926,10 @@
         <v>706</v>
       </c>
       <c r="C506" t="s">
-        <v>615</v>
+        <v>125</v>
       </c>
       <c r="D506" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -12882,10 +12940,10 @@
         <v>706</v>
       </c>
       <c r="C507" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D507" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -12895,11 +12953,11 @@
       <c r="B508" t="s">
         <v>706</v>
       </c>
-      <c r="C508" t="s">
-        <v>134</v>
+      <c r="C508" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="D508" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -12910,10 +12968,10 @@
         <v>706</v>
       </c>
       <c r="C509" t="s">
-        <v>136</v>
+        <v>615</v>
       </c>
       <c r="D509" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -12923,11 +12981,11 @@
       <c r="B510" t="s">
         <v>706</v>
       </c>
-      <c r="C510" s="8" t="s">
-        <v>138</v>
+      <c r="C510" t="s">
+        <v>132</v>
       </c>
       <c r="D510" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -12938,10 +12996,10 @@
         <v>706</v>
       </c>
       <c r="C511" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D511" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -12952,10 +13010,10 @@
         <v>706</v>
       </c>
       <c r="C512" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D512" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
@@ -12965,11 +13023,11 @@
       <c r="B513" t="s">
         <v>706</v>
       </c>
-      <c r="C513" t="s">
-        <v>144</v>
+      <c r="C513" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D513" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
@@ -12980,13 +13038,10 @@
         <v>706</v>
       </c>
       <c r="C514" t="s">
-        <v>146</v>
-      </c>
-      <c r="D514" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G514" t="s">
-        <v>28</v>
+        <v>140</v>
+      </c>
+      <c r="D514" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
@@ -12997,10 +13052,10 @@
         <v>706</v>
       </c>
       <c r="C515" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D515" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
@@ -13011,10 +13066,10 @@
         <v>706</v>
       </c>
       <c r="C516" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D516" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
@@ -13025,10 +13080,13 @@
         <v>706</v>
       </c>
       <c r="C517" t="s">
-        <v>152</v>
-      </c>
-      <c r="D517" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G517" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
@@ -13039,10 +13097,10 @@
         <v>706</v>
       </c>
       <c r="C518" t="s">
-        <v>613</v>
-      </c>
-      <c r="D518" s="15" t="s">
-        <v>614</v>
+        <v>148</v>
+      </c>
+      <c r="D518" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
@@ -13053,10 +13111,10 @@
         <v>706</v>
       </c>
       <c r="C519" t="s">
-        <v>616</v>
-      </c>
-      <c r="D519" s="15" t="s">
-        <v>586</v>
+        <v>150</v>
+      </c>
+      <c r="D519" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
@@ -13067,10 +13125,10 @@
         <v>706</v>
       </c>
       <c r="C520" t="s">
-        <v>617</v>
-      </c>
-      <c r="D520" s="15" t="s">
-        <v>587</v>
+        <v>152</v>
+      </c>
+      <c r="D520" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
@@ -13081,10 +13139,10 @@
         <v>706</v>
       </c>
       <c r="C521" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D521" s="15" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
@@ -13095,10 +13153,10 @@
         <v>706</v>
       </c>
       <c r="C522" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D522" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
@@ -13109,10 +13167,10 @@
         <v>706</v>
       </c>
       <c r="C523" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D523" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
@@ -13123,10 +13181,10 @@
         <v>706</v>
       </c>
       <c r="C524" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D524" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -13137,10 +13195,10 @@
         <v>706</v>
       </c>
       <c r="C525" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D525" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
@@ -13151,10 +13209,10 @@
         <v>706</v>
       </c>
       <c r="C526" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D526" s="15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
@@ -13165,10 +13223,10 @@
         <v>706</v>
       </c>
       <c r="C527" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D527" s="15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
@@ -13179,10 +13237,10 @@
         <v>706</v>
       </c>
       <c r="C528" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D528" s="15" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
@@ -13193,10 +13251,10 @@
         <v>706</v>
       </c>
       <c r="C529" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D529" s="15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
@@ -13207,10 +13265,10 @@
         <v>706</v>
       </c>
       <c r="C530" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D530" s="15" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
@@ -13221,10 +13279,10 @@
         <v>706</v>
       </c>
       <c r="C531" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D531" s="15" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
@@ -13235,10 +13293,10 @@
         <v>706</v>
       </c>
       <c r="C532" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D532" s="15" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
@@ -13249,10 +13307,10 @@
         <v>706</v>
       </c>
       <c r="C533" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D533" s="15" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
@@ -13263,10 +13321,10 @@
         <v>706</v>
       </c>
       <c r="C534" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D534" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
@@ -13277,10 +13335,10 @@
         <v>706</v>
       </c>
       <c r="C535" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D535" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
@@ -13291,10 +13349,10 @@
         <v>706</v>
       </c>
       <c r="C536" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D536" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
@@ -13305,10 +13363,10 @@
         <v>706</v>
       </c>
       <c r="C537" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D537" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
@@ -13319,10 +13377,10 @@
         <v>706</v>
       </c>
       <c r="C538" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D538" s="15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
@@ -13333,10 +13391,10 @@
         <v>706</v>
       </c>
       <c r="C539" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D539" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
@@ -13347,10 +13405,10 @@
         <v>706</v>
       </c>
       <c r="C540" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D540" s="15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
@@ -13361,10 +13419,10 @@
         <v>706</v>
       </c>
       <c r="C541" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D541" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
@@ -13375,10 +13433,10 @@
         <v>706</v>
       </c>
       <c r="C542" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D542" s="15" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
@@ -13389,10 +13447,10 @@
         <v>706</v>
       </c>
       <c r="C543" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D543" s="15" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
@@ -13403,10 +13461,10 @@
         <v>706</v>
       </c>
       <c r="C544" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D544" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -13417,52 +13475,52 @@
         <v>706</v>
       </c>
       <c r="C545" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D545" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>122</v>
+      </c>
+      <c r="B546" t="s">
+        <v>706</v>
+      </c>
+      <c r="C546" t="s">
+        <v>642</v>
+      </c>
+      <c r="D546" s="15" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B547" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C547" t="s">
-        <v>154</v>
-      </c>
-      <c r="D547" t="s">
-        <v>155</v>
+        <v>643</v>
+      </c>
+      <c r="D547" s="15" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B548" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C548" t="s">
-        <v>157</v>
-      </c>
-      <c r="D548" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
-        <v>156</v>
-      </c>
-      <c r="B549" t="s">
-        <v>707</v>
-      </c>
-      <c r="C549" t="s">
-        <v>159</v>
-      </c>
-      <c r="D549" t="s">
-        <v>160</v>
+        <v>644</v>
+      </c>
+      <c r="D548" s="15" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
@@ -13473,10 +13531,10 @@
         <v>707</v>
       </c>
       <c r="C550" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D550" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
@@ -13486,14 +13544,11 @@
       <c r="B551" t="s">
         <v>707</v>
       </c>
-      <c r="C551" s="8" t="s">
-        <v>163</v>
+      <c r="C551" t="s">
+        <v>157</v>
       </c>
       <c r="D551" t="s">
-        <v>164</v>
-      </c>
-      <c r="G551" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
@@ -13504,10 +13559,10 @@
         <v>707</v>
       </c>
       <c r="C552" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D552" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
@@ -13518,10 +13573,10 @@
         <v>707</v>
       </c>
       <c r="C553" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D553" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
@@ -13531,11 +13586,14 @@
       <c r="B554" t="s">
         <v>707</v>
       </c>
-      <c r="C554" t="s">
-        <v>169</v>
+      <c r="C554" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D554" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="G554" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
@@ -13545,14 +13603,11 @@
       <c r="B555" t="s">
         <v>707</v>
       </c>
-      <c r="C555" s="8" t="s">
-        <v>171</v>
+      <c r="C555" t="s">
+        <v>165</v>
       </c>
       <c r="D555" t="s">
-        <v>172</v>
-      </c>
-      <c r="G555" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
@@ -13563,10 +13618,10 @@
         <v>707</v>
       </c>
       <c r="C556" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D556" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
@@ -13577,10 +13632,10 @@
         <v>707</v>
       </c>
       <c r="C557" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D557" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
@@ -13590,11 +13645,14 @@
       <c r="B558" t="s">
         <v>707</v>
       </c>
-      <c r="C558" t="s">
-        <v>177</v>
+      <c r="C558" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D558" t="s">
-        <v>178</v>
+        <v>172</v>
+      </c>
+      <c r="G558" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
@@ -13604,14 +13662,11 @@
       <c r="B559" t="s">
         <v>707</v>
       </c>
-      <c r="C559" s="8" t="s">
-        <v>179</v>
+      <c r="C559" t="s">
+        <v>173</v>
       </c>
       <c r="D559" t="s">
-        <v>180</v>
-      </c>
-      <c r="G559" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
@@ -13622,10 +13677,10 @@
         <v>707</v>
       </c>
       <c r="C560" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D560" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -13635,14 +13690,11 @@
       <c r="B561" t="s">
         <v>707</v>
       </c>
-      <c r="C561" s="8" t="s">
-        <v>183</v>
+      <c r="C561" t="s">
+        <v>177</v>
       </c>
       <c r="D561" t="s">
-        <v>184</v>
-      </c>
-      <c r="G561" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -13652,11 +13704,14 @@
       <c r="B562" t="s">
         <v>707</v>
       </c>
-      <c r="C562" t="s">
-        <v>185</v>
+      <c r="C562" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="D562" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="G562" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -13666,14 +13721,11 @@
       <c r="B563" t="s">
         <v>707</v>
       </c>
-      <c r="C563" s="8" t="s">
-        <v>187</v>
+      <c r="C563" t="s">
+        <v>181</v>
       </c>
       <c r="D563" t="s">
-        <v>188</v>
-      </c>
-      <c r="G563" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -13683,11 +13735,14 @@
       <c r="B564" t="s">
         <v>707</v>
       </c>
-      <c r="C564" t="s">
-        <v>189</v>
+      <c r="C564" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D564" t="s">
-        <v>341</v>
+        <v>184</v>
+      </c>
+      <c r="G564" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -13698,13 +13753,10 @@
         <v>707</v>
       </c>
       <c r="C565" t="s">
-        <v>340</v>
-      </c>
-      <c r="D565" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G565" t="s">
-        <v>28</v>
+        <v>185</v>
+      </c>
+      <c r="D565" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -13714,11 +13766,14 @@
       <c r="B566" t="s">
         <v>707</v>
       </c>
-      <c r="C566" t="s">
-        <v>190</v>
+      <c r="C566" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D566" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="G566" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -13729,10 +13784,10 @@
         <v>707</v>
       </c>
       <c r="C567" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D567" t="s">
-        <v>193</v>
+        <v>341</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -13743,10 +13798,13 @@
         <v>707</v>
       </c>
       <c r="C568" t="s">
-        <v>194</v>
-      </c>
-      <c r="D568" t="s">
-        <v>195</v>
+        <v>340</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G568" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -13757,10 +13815,10 @@
         <v>707</v>
       </c>
       <c r="C569" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D569" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -13771,10 +13829,10 @@
         <v>707</v>
       </c>
       <c r="C570" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D570" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -13785,10 +13843,10 @@
         <v>707</v>
       </c>
       <c r="C571" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D571" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -13799,10 +13857,10 @@
         <v>707</v>
       </c>
       <c r="C572" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D572" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -13813,10 +13871,10 @@
         <v>707</v>
       </c>
       <c r="C573" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D573" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -13827,10 +13885,10 @@
         <v>707</v>
       </c>
       <c r="C574" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D574" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -13841,72 +13899,66 @@
         <v>707</v>
       </c>
       <c r="C575" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D575" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>156</v>
+      </c>
+      <c r="B576" t="s">
+        <v>707</v>
+      </c>
+      <c r="C576" t="s">
+        <v>204</v>
+      </c>
+      <c r="D576" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A577" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B577" s="4" t="s">
-        <v>708</v>
+      <c r="A577" t="s">
+        <v>156</v>
+      </c>
+      <c r="B577" t="s">
+        <v>707</v>
       </c>
       <c r="C577" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="D577" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="B578" t="s">
+        <v>707</v>
+      </c>
+      <c r="C578" t="s">
+        <v>208</v>
+      </c>
+      <c r="D578" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B580" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="C578" t="s">
-        <v>210</v>
-      </c>
-      <c r="D578" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G578" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
-        <v>212</v>
-      </c>
-      <c r="B579" t="s">
-        <v>708</v>
-      </c>
-      <c r="C579" t="s">
-        <v>213</v>
-      </c>
-      <c r="D579" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G579" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
-        <v>212</v>
-      </c>
-      <c r="B580" t="s">
-        <v>708</v>
-      </c>
       <c r="C580" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="D580" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -13917,10 +13969,13 @@
         <v>708</v>
       </c>
       <c r="C581" t="s">
-        <v>217</v>
-      </c>
-      <c r="D581" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G581" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -13930,11 +13985,11 @@
       <c r="B582" t="s">
         <v>708</v>
       </c>
-      <c r="C582" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>220</v>
+      <c r="C582" t="s">
+        <v>213</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="G582" t="s">
         <v>28</v>
@@ -13948,10 +14003,10 @@
         <v>708</v>
       </c>
       <c r="C583" t="s">
-        <v>221</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="D583" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -13962,10 +14017,10 @@
         <v>708</v>
       </c>
       <c r="C584" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D584" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -13975,11 +14030,11 @@
       <c r="B585" t="s">
         <v>708</v>
       </c>
-      <c r="C585" t="s">
-        <v>225</v>
-      </c>
-      <c r="D585" s="3" t="s">
-        <v>226</v>
+      <c r="C585" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="G585" t="s">
         <v>28</v>
@@ -13993,10 +14048,10 @@
         <v>708</v>
       </c>
       <c r="C586" t="s">
-        <v>227</v>
-      </c>
-      <c r="D586" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -14007,10 +14062,10 @@
         <v>708</v>
       </c>
       <c r="C587" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D587" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -14021,10 +14076,13 @@
         <v>708</v>
       </c>
       <c r="C588" t="s">
-        <v>231</v>
-      </c>
-      <c r="D588" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G588" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -14035,10 +14093,10 @@
         <v>708</v>
       </c>
       <c r="C589" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D589" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -14049,10 +14107,10 @@
         <v>708</v>
       </c>
       <c r="C590" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D590" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -14063,10 +14121,10 @@
         <v>708</v>
       </c>
       <c r="C591" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D591" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -14077,10 +14135,10 @@
         <v>708</v>
       </c>
       <c r="C592" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D592" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
@@ -14091,10 +14149,10 @@
         <v>708</v>
       </c>
       <c r="C593" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D593" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
@@ -14105,13 +14163,10 @@
         <v>708</v>
       </c>
       <c r="C594" t="s">
-        <v>243</v>
-      </c>
-      <c r="D594" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G594" t="s">
-        <v>28</v>
+        <v>237</v>
+      </c>
+      <c r="D594" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
@@ -14122,13 +14177,10 @@
         <v>708</v>
       </c>
       <c r="C595" t="s">
-        <v>245</v>
-      </c>
-      <c r="D595" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G595" t="s">
-        <v>28</v>
+        <v>239</v>
+      </c>
+      <c r="D595" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
@@ -14139,10 +14191,10 @@
         <v>708</v>
       </c>
       <c r="C596" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D596" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
@@ -14153,10 +14205,13 @@
         <v>708</v>
       </c>
       <c r="C597" t="s">
-        <v>249</v>
-      </c>
-      <c r="D597" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G597" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
@@ -14167,10 +14222,10 @@
         <v>708</v>
       </c>
       <c r="C598" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G598" t="s">
         <v>28</v>
@@ -14184,13 +14239,10 @@
         <v>708</v>
       </c>
       <c r="C599" t="s">
-        <v>253</v>
-      </c>
-      <c r="D599" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G599" t="s">
-        <v>28</v>
+        <v>247</v>
+      </c>
+      <c r="D599" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
@@ -14201,10 +14253,10 @@
         <v>708</v>
       </c>
       <c r="C600" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D600" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
@@ -14215,10 +14267,13 @@
         <v>708</v>
       </c>
       <c r="C601" t="s">
-        <v>257</v>
-      </c>
-      <c r="D601" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G601" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
@@ -14229,10 +14284,13 @@
         <v>708</v>
       </c>
       <c r="C602" t="s">
-        <v>259</v>
-      </c>
-      <c r="D602" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G602" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
@@ -14243,66 +14301,66 @@
         <v>708</v>
       </c>
       <c r="C603" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D603" t="s">
-        <v>262</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>212</v>
+      </c>
+      <c r="B604" t="s">
+        <v>708</v>
+      </c>
+      <c r="C604" t="s">
+        <v>257</v>
+      </c>
+      <c r="D604" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A605" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B605" s="4" t="s">
-        <v>709</v>
+      <c r="A605" t="s">
+        <v>212</v>
+      </c>
+      <c r="B605" t="s">
+        <v>708</v>
       </c>
       <c r="C605" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="D605" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
+        <v>212</v>
+      </c>
+      <c r="B606" t="s">
+        <v>708</v>
+      </c>
+      <c r="C606" t="s">
+        <v>261</v>
+      </c>
+      <c r="D606" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A608" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B608" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C606" t="s">
-        <v>263</v>
-      </c>
-      <c r="D606" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A607" t="s">
-        <v>265</v>
-      </c>
-      <c r="B607" t="s">
-        <v>709</v>
-      </c>
-      <c r="C607" t="s">
-        <v>266</v>
-      </c>
-      <c r="D607" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A608" t="s">
-        <v>265</v>
-      </c>
-      <c r="B608" t="s">
-        <v>709</v>
-      </c>
       <c r="C608" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="D608" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
@@ -14313,10 +14371,10 @@
         <v>709</v>
       </c>
       <c r="C609" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D609" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -14327,10 +14385,10 @@
         <v>709</v>
       </c>
       <c r="C610" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D610" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
@@ -14341,10 +14399,10 @@
         <v>709</v>
       </c>
       <c r="C611" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D611" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
@@ -14355,10 +14413,10 @@
         <v>709</v>
       </c>
       <c r="C612" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D612" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
@@ -14369,10 +14427,10 @@
         <v>709</v>
       </c>
       <c r="C613" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D613" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
@@ -14383,10 +14441,10 @@
         <v>709</v>
       </c>
       <c r="C614" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D614" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
@@ -14397,10 +14455,10 @@
         <v>709</v>
       </c>
       <c r="C615" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D615" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
@@ -14411,10 +14469,10 @@
         <v>709</v>
       </c>
       <c r="C616" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="D616" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
@@ -14425,10 +14483,10 @@
         <v>709</v>
       </c>
       <c r="C617" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="D617" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
@@ -14439,10 +14497,10 @@
         <v>709</v>
       </c>
       <c r="C618" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D618" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
@@ -14453,10 +14511,10 @@
         <v>709</v>
       </c>
       <c r="C619" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D619" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
@@ -14467,66 +14525,66 @@
         <v>709</v>
       </c>
       <c r="C620" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D620" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>265</v>
+      </c>
+      <c r="B621" t="s">
+        <v>709</v>
+      </c>
+      <c r="C621" t="s">
+        <v>286</v>
+      </c>
+      <c r="D621" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A622" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B622" s="4" t="s">
-        <v>710</v>
+      <c r="A622" t="s">
+        <v>265</v>
+      </c>
+      <c r="B622" t="s">
+        <v>709</v>
       </c>
       <c r="C622" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="D622" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
+        <v>265</v>
+      </c>
+      <c r="B623" t="s">
+        <v>709</v>
+      </c>
+      <c r="C623" t="s">
+        <v>247</v>
+      </c>
+      <c r="D623" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B625" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C623" t="s">
-        <v>290</v>
-      </c>
-      <c r="D623" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" t="s">
-        <v>292</v>
-      </c>
-      <c r="B624" t="s">
-        <v>710</v>
-      </c>
-      <c r="C624" t="s">
-        <v>293</v>
-      </c>
-      <c r="D624" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A625" t="s">
-        <v>292</v>
-      </c>
-      <c r="B625" t="s">
-        <v>710</v>
-      </c>
       <c r="C625" t="s">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c r="D625" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
@@ -14537,10 +14595,10 @@
         <v>710</v>
       </c>
       <c r="C626" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D626" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.2">
@@ -14551,10 +14609,10 @@
         <v>710</v>
       </c>
       <c r="C627" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D627" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
@@ -14564,11 +14622,11 @@
       <c r="B628" t="s">
         <v>710</v>
       </c>
-      <c r="C628" s="8" t="s">
-        <v>301</v>
+      <c r="C628" t="s">
+        <v>295</v>
       </c>
       <c r="D628" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.2">
@@ -14579,10 +14637,10 @@
         <v>710</v>
       </c>
       <c r="C629" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D629" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.2">
@@ -14593,10 +14651,10 @@
         <v>710</v>
       </c>
       <c r="C630" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D630" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
@@ -14606,11 +14664,11 @@
       <c r="B631" t="s">
         <v>710</v>
       </c>
-      <c r="C631" t="s">
-        <v>307</v>
+      <c r="C631" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D631" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
@@ -14621,10 +14679,10 @@
         <v>710</v>
       </c>
       <c r="C632" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D632" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
@@ -14634,11 +14692,11 @@
       <c r="B633" t="s">
         <v>710</v>
       </c>
-      <c r="C633" s="8" t="s">
-        <v>311</v>
+      <c r="C633" t="s">
+        <v>305</v>
       </c>
       <c r="D633" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
@@ -14649,10 +14707,10 @@
         <v>710</v>
       </c>
       <c r="C634" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D634" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.2">
@@ -14663,10 +14721,10 @@
         <v>710</v>
       </c>
       <c r="C635" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D635" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
@@ -14676,11 +14734,11 @@
       <c r="B636" t="s">
         <v>710</v>
       </c>
-      <c r="C636" t="s">
-        <v>317</v>
+      <c r="C636" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D636" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
@@ -14691,10 +14749,10 @@
         <v>710</v>
       </c>
       <c r="C637" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D637" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.2">
@@ -14705,10 +14763,10 @@
         <v>710</v>
       </c>
       <c r="C638" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D638" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.2">
@@ -14719,10 +14777,10 @@
         <v>710</v>
       </c>
       <c r="C639" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D639" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.2">
@@ -14733,10 +14791,10 @@
         <v>710</v>
       </c>
       <c r="C640" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D640" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
@@ -14747,10 +14805,10 @@
         <v>710</v>
       </c>
       <c r="C641" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D641" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
@@ -14760,11 +14818,11 @@
       <c r="B642" t="s">
         <v>710</v>
       </c>
-      <c r="C642" s="8" t="s">
-        <v>144</v>
+      <c r="C642" t="s">
+        <v>323</v>
       </c>
       <c r="D642" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
@@ -14775,10 +14833,10 @@
         <v>710</v>
       </c>
       <c r="C643" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="D643" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
@@ -14789,10 +14847,10 @@
         <v>710</v>
       </c>
       <c r="C644" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="D644" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
@@ -14802,11 +14860,11 @@
       <c r="B645" t="s">
         <v>710</v>
       </c>
-      <c r="C645" t="s">
-        <v>332</v>
+      <c r="C645" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D645" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
@@ -14817,10 +14875,10 @@
         <v>710</v>
       </c>
       <c r="C646" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D646" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
@@ -14831,12 +14889,54 @@
         <v>710</v>
       </c>
       <c r="C647" t="s">
+        <v>148</v>
+      </c>
+      <c r="D647" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>292</v>
+      </c>
+      <c r="B648" t="s">
+        <v>710</v>
+      </c>
+      <c r="C648" t="s">
+        <v>332</v>
+      </c>
+      <c r="D648" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>292</v>
+      </c>
+      <c r="B649" t="s">
+        <v>710</v>
+      </c>
+      <c r="C649" t="s">
+        <v>152</v>
+      </c>
+      <c r="D649" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>292</v>
+      </c>
+      <c r="B650" t="s">
+        <v>710</v>
+      </c>
+      <c r="C650" t="s">
         <v>335</v>
       </c>
-      <c r="D647" s="3" t="s">
+      <c r="D650" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G647" t="s">
+      <c r="G650" t="s">
         <v>28</v>
       </c>
     </row>

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A947D92-805C-4E7E-A5D6-EC315BBFBCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314CFDF-64B8-4042-AC36-0A153431BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1230" windowWidth="21630" windowHeight="15090" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="939">
   <si>
     <t>字段名</t>
   </si>
@@ -3461,10 +3461,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>form_hbspt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>size_hbspt</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3536,255 +3532,252 @@
     <t>挂梁支座数量</t>
   </si>
   <si>
+    <t>挂梁支座尺寸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防落梁材料  Anti-falling beam device </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防落梁数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桁架片材料 slice </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁架跨中梁高(m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主结点材料  main_node </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结点数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">纵梁材料  vertical  </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵梁数量</t>
+  </si>
+  <si>
+    <t>纵梁截面型式   (矩形,箱形，T形,工形)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵梁跨度(m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">横梁材料  cross  </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁数量</t>
+  </si>
+  <si>
+    <t>结点型式  (固结，铰接)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁截面型式 (矩形,箱形，T形,工形)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">联结件材料 linker </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_lk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_lk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_lk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_form_cros</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_cros</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_cros</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness_cros</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁长度(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁高度(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁厚度(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_cros</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联结件数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联结件型式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主梁跨中梁高(m)</t>
+  </si>
+  <si>
+    <t>横隔板截面型式</t>
+  </si>
+  <si>
+    <t>girder_section_form</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主梁截面型式</t>
+  </si>
+  <si>
+    <t>横梁截面型式</t>
+  </si>
+  <si>
+    <t>belly_board_material</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_zhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_hold_on_method</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbl_width</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fulcrum_girder_height</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_form</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_support_size</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_support_count</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_mid_span_height</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬臂梁宽度(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬臂梁跨中梁高(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂梁支座数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬臂支点梁高(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbl_girder_height</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂梁支座尺寸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_support_material</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂梁支撑方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>挂梁支座型式</t>
-  </si>
-  <si>
-    <t>挂梁支座尺寸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防落梁材料  Anti-falling beam device </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防落梁数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桁架片材料 slice </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>桁架跨中梁高(m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主结点材料  main_node </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>结点数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">纵梁材料  vertical  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵梁数量</t>
-  </si>
-  <si>
-    <t>纵梁截面型式   (矩形,箱形，T形,工形)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵梁跨度(m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">横梁材料  cross  </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横梁数量</t>
-  </si>
-  <si>
-    <t>结点型式  (固结，铰接)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横梁截面型式 (矩形,箱形，T形,工形)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">联结件材料 linker </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_lk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_lk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_lk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>section_form_cros</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>length_cros</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>height_cros</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>thickness_cros</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横梁长度(m)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横梁高度(m)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横梁厚度(m)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>count_cros</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>联结件数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>联结件型式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主梁跨中梁高(m)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【桁架拱桥 主表】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【上承式拱桥 主表】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中承式拱桥 主表】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【下承式拱桥 主表】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【斜拉桥 主表】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【悬索桥 主表】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise_span_ratio</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊杠材料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊杠类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_horizontal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_vertical</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>横隔板截面型式</t>
-  </si>
-  <si>
-    <t>girder_section_form</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主梁截面型式</t>
-  </si>
-  <si>
-    <t>横梁截面型式</t>
-  </si>
-  <si>
-    <t>belly_board_material</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_zhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_hold_on_method</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xbl_width</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>fulcrum_girder_height</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>support_form</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_support_size</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_support_count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_mid_span_height</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬臂梁宽度(m)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬臂梁跨中梁高(m)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂梁支座数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬臂支点梁高(m)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xbl_girder_height</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂梁支座尺寸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_support_material</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂梁支撑方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂梁支座型式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【桁架拱桥 主表】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【上承式拱桥 主表】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【中承式拱桥 主表】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【下承式拱桥 主表】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【斜拉桥 主表】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【悬索桥 主表】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rise_span_ratio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊杠材料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊杠类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_horizontal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_vertical</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横隔板数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>横隔板截面型式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3953,6 +3946,17 @@
   </si>
   <si>
     <t>圆板式 ，矩形板式  ，盆式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_xbl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_support_form</t>
+  </si>
+  <si>
+    <t>挂梁支座型式  （字段名修改）form_hbspt</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4825,9 +4829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5835,7 +5839,7 @@
         <v>813</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E70" t="s">
         <v>719</v>
@@ -5849,7 +5853,7 @@
         <v>688</v>
       </c>
       <c r="C71" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>478</v>
@@ -5866,7 +5870,7 @@
         <v>688</v>
       </c>
       <c r="C72" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>479</v>
@@ -5903,7 +5907,7 @@
         <v>410</v>
       </c>
       <c r="D74" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E74" t="s">
         <v>719</v>
@@ -5920,7 +5924,7 @@
         <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E75" t="s">
         <v>719</v>
@@ -5937,7 +5941,7 @@
         <v>408</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E76" t="s">
         <v>720</v>
@@ -5957,7 +5961,7 @@
         <v>407</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E77" t="s">
         <v>719</v>
@@ -6017,7 +6021,7 @@
         <v>688</v>
       </c>
       <c r="C80" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>416</v>
@@ -6034,7 +6038,7 @@
         <v>688</v>
       </c>
       <c r="C81" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>417</v>
@@ -6343,7 +6347,7 @@
         <v>774</v>
       </c>
       <c r="D101" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E101" t="s">
         <v>719</v>
@@ -6414,7 +6418,7 @@
         <v>773</v>
       </c>
       <c r="D105" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E105" t="s">
         <v>719</v>
@@ -6493,10 +6497,10 @@
         <v>689</v>
       </c>
       <c r="C110" s="51" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E110" t="s">
         <v>722</v>
@@ -6510,10 +6514,10 @@
         <v>689</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E111" t="s">
         <v>722</v>
@@ -6527,10 +6531,10 @@
         <v>689</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E112" t="s">
         <v>722</v>
@@ -6564,7 +6568,7 @@
         <v>772</v>
       </c>
       <c r="D114" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E114" t="s">
         <v>719</v>
@@ -6587,7 +6591,7 @@
         <v>771</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E115" t="s">
         <v>719</v>
@@ -6610,7 +6614,7 @@
         <v>778</v>
       </c>
       <c r="D116" s="46" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E116" t="s">
         <v>719</v>
@@ -6644,7 +6648,7 @@
         <v>775</v>
       </c>
       <c r="D118" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E118" t="s">
         <v>719</v>
@@ -6667,7 +6671,7 @@
         <v>776</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E119" t="s">
         <v>719</v>
@@ -6690,7 +6694,7 @@
         <v>779</v>
       </c>
       <c r="D120" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E120" t="s">
         <v>719</v>
@@ -6710,7 +6714,7 @@
         <v>777</v>
       </c>
       <c r="D121" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E121" t="s">
         <v>719</v>
@@ -6744,7 +6748,7 @@
         <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E123" t="s">
         <v>719</v>
@@ -6764,10 +6768,10 @@
         <v>689</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E124" t="s">
         <v>722</v>
@@ -6784,10 +6788,10 @@
         <v>689</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E125" t="s">
         <v>722</v>
@@ -6801,10 +6805,10 @@
         <v>689</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E126" t="s">
         <v>722</v>
@@ -6818,10 +6822,10 @@
         <v>689</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E127" t="s">
         <v>722</v>
@@ -6835,10 +6839,10 @@
         <v>689</v>
       </c>
       <c r="C128" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D128" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E128" t="s">
         <v>719</v>
@@ -6886,7 +6890,7 @@
         <v>689</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D131" s="38" t="s">
         <v>664</v>
@@ -7184,10 +7188,10 @@
         <v>690</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E149" t="s">
         <v>719</v>
@@ -7196,7 +7200,7 @@
         <v>28</v>
       </c>
       <c r="H149" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -7207,16 +7211,16 @@
         <v>690</v>
       </c>
       <c r="C150" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D150" s="57" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E150" t="s">
         <v>719</v>
       </c>
       <c r="H150" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -7295,10 +7299,10 @@
         <v>690</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E155" t="s">
         <v>719</v>
@@ -7307,7 +7311,7 @@
         <v>28</v>
       </c>
       <c r="H155" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -7318,10 +7322,10 @@
         <v>690</v>
       </c>
       <c r="C156" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E156" t="s">
         <v>719</v>
@@ -7330,7 +7334,7 @@
         <v>28</v>
       </c>
       <c r="H156" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -7409,7 +7413,7 @@
         <v>690</v>
       </c>
       <c r="C161" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>423</v>
@@ -7421,7 +7425,7 @@
         <v>28</v>
       </c>
       <c r="H161" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -7435,7 +7439,7 @@
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E162" t="s">
         <v>719</v>
@@ -7492,7 +7496,7 @@
         <v>795</v>
       </c>
       <c r="D165" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E165" t="s">
         <v>719</v>
@@ -7526,7 +7530,7 @@
         <v>812</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E167" t="s">
         <v>722</v>
@@ -7577,7 +7581,7 @@
         <v>813</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E170" t="s">
         <v>722</v>
@@ -7594,7 +7598,7 @@
         <v>814</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E171" t="s">
         <v>722</v>
@@ -7628,7 +7632,7 @@
         <v>815</v>
       </c>
       <c r="D173" s="58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E173" t="s">
         <v>722</v>
@@ -7637,21 +7641,21 @@
         <v>28</v>
       </c>
       <c r="H173" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>108</v>
+        <v>936</v>
       </c>
       <c r="B174" t="s">
         <v>690</v>
       </c>
       <c r="C174" s="45" t="s">
-        <v>816</v>
+        <v>937</v>
       </c>
       <c r="D174" s="43" t="s">
-        <v>830</v>
+        <v>938</v>
       </c>
       <c r="E174" t="s">
         <v>722</v>
@@ -7665,10 +7669,10 @@
         <v>690</v>
       </c>
       <c r="C175" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D175" s="43" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E175" t="s">
         <v>722</v>
@@ -7682,10 +7686,10 @@
         <v>690</v>
       </c>
       <c r="C176" s="45" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D176" s="43" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E176" t="s">
         <v>722</v>
@@ -7716,10 +7720,10 @@
         <v>690</v>
       </c>
       <c r="C178" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D178" s="58" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E178" t="s">
         <v>722</v>
@@ -7728,7 +7732,7 @@
         <v>28</v>
       </c>
       <c r="H178" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -7773,10 +7777,10 @@
         <v>690</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D181" s="43" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E181" t="s">
         <v>722</v>
@@ -8013,7 +8017,7 @@
         <v>691</v>
       </c>
       <c r="C196" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D196" s="61" t="s">
         <v>373</v>
@@ -8144,7 +8148,7 @@
         <v>691</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D203" s="61" t="s">
         <v>379</v>
@@ -8196,7 +8200,7 @@
         <v>28</v>
       </c>
       <c r="H205" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -8227,7 +8231,7 @@
         <v>395</v>
       </c>
       <c r="D207" s="61" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E207" t="s">
         <v>719</v>
@@ -8236,7 +8240,7 @@
         <v>28</v>
       </c>
       <c r="H207" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -8574,7 +8578,7 @@
         <v>28</v>
       </c>
       <c r="H227" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -8982,7 +8986,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>693</v>
@@ -9005,7 +9009,7 @@
         <v>693</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D253" s="62" t="s">
         <v>450</v>
@@ -9017,7 +9021,7 @@
         <v>28</v>
       </c>
       <c r="H253" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -9028,7 +9032,7 @@
         <v>693</v>
       </c>
       <c r="C254" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D254" s="62" t="s">
         <v>451</v>
@@ -9040,7 +9044,7 @@
         <v>28</v>
       </c>
       <c r="H254" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -9068,10 +9072,10 @@
         <v>693</v>
       </c>
       <c r="C256" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D256" s="62" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E256" t="s">
         <v>719</v>
@@ -9262,7 +9266,7 @@
         <v>435</v>
       </c>
       <c r="D266" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E266" t="s">
         <v>719</v>
@@ -9574,7 +9578,7 @@
         <v>694</v>
       </c>
       <c r="C285" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D285" t="s">
         <v>739</v>
@@ -9660,7 +9664,7 @@
         <v>466</v>
       </c>
       <c r="D289" s="61" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E289" t="s">
         <v>719</v>
@@ -9669,7 +9673,7 @@
         <v>28</v>
       </c>
       <c r="H289" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -9726,7 +9730,7 @@
         <v>28</v>
       </c>
       <c r="H292" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -9757,7 +9761,7 @@
         <v>469</v>
       </c>
       <c r="D294" s="61" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E294" t="s">
         <v>719</v>
@@ -9766,7 +9770,7 @@
         <v>28</v>
       </c>
       <c r="H294" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -9828,10 +9832,10 @@
         <v>694</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D298" s="61" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E298" t="s">
         <v>722</v>
@@ -9860,7 +9864,7 @@
         <v>28</v>
       </c>
       <c r="H299" s="14" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -9868,7 +9872,7 @@
         <v>643</v>
       </c>
       <c r="B300" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C300" t="s">
         <v>474</v>
@@ -9905,10 +9909,10 @@
         <v>694</v>
       </c>
       <c r="C302" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D302" s="61" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E302" t="s">
         <v>719</v>
@@ -9917,7 +9921,7 @@
         <v>28</v>
       </c>
       <c r="H302" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -9962,10 +9966,10 @@
         <v>694</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -9976,10 +9980,10 @@
         <v>694</v>
       </c>
       <c r="C306" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D306" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -9990,10 +9994,10 @@
         <v>694</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -10004,10 +10008,10 @@
         <v>694</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -10018,10 +10022,10 @@
         <v>694</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -10052,7 +10056,7 @@
         <v>694</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D311" s="61" t="s">
         <v>425</v>
@@ -10072,7 +10076,7 @@
         <v>475</v>
       </c>
       <c r="D312" s="61" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E312" t="s">
         <v>722</v>
@@ -10081,7 +10085,7 @@
         <v>28</v>
       </c>
       <c r="H312" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -10490,7 +10494,7 @@
         <v>408</v>
       </c>
       <c r="D336" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E336" t="s">
         <v>719</v>
@@ -10745,7 +10749,7 @@
         <v>645</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C352" t="s">
         <v>509</v>
@@ -10951,7 +10955,7 @@
         <v>696</v>
       </c>
       <c r="C365" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D365" s="31" t="s">
         <v>663</v>
@@ -10962,7 +10966,7 @@
         <v>645</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C366" s="54" t="s">
         <v>674</v>
@@ -11088,7 +11092,7 @@
         <v>646</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C376" t="s">
         <v>60</v>
@@ -11286,7 +11290,7 @@
         <v>491</v>
       </c>
       <c r="D388" s="60" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -11314,7 +11318,7 @@
         <v>697</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D390" s="53" t="s">
         <v>663</v>
@@ -11451,7 +11455,7 @@
         <v>647</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C401" t="s">
         <v>60</v>
@@ -11618,7 +11622,7 @@
         <v>534</v>
       </c>
       <c r="D411" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G411" t="s">
         <v>28</v>
@@ -11888,7 +11892,7 @@
         <v>648</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C430" t="s">
         <v>60</v>
@@ -12106,7 +12110,7 @@
         <v>699</v>
       </c>
       <c r="C443" s="33" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D443" s="53" t="s">
         <v>663</v>
@@ -12243,7 +12247,7 @@
         <v>649</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C454" t="s">
         <v>60</v>
@@ -12356,7 +12360,7 @@
         <v>541</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -12586,7 +12590,7 @@
         <v>650</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C478" t="s">
         <v>60</v>
@@ -12620,7 +12624,7 @@
         <v>701</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D480" t="s">
         <v>566</v>
@@ -12634,7 +12638,7 @@
         <v>701</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D481" t="s">
         <v>567</v>
@@ -12682,7 +12686,7 @@
         <v>534</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
@@ -12727,10 +12731,10 @@
         <v>701</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D487" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
@@ -12741,10 +12745,10 @@
         <v>701</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314CFDF-64B8-4042-AC36-0A153431BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BE25F-E5A6-479C-BF90-7A8C1BBCFEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1230" windowWidth="21630" windowHeight="15090" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边是否有此字段？</t>
@@ -58,6 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -113,6 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">下面黄色标记的9个字段这里是‘锦阳’原型上面有的字段，但是国产化那边没有这9个字段
@@ -128,6 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边没有这个类型</t>
@@ -168,6 +172,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边没有这个类型</t>
@@ -197,6 +202,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边没有这个类型</t>
@@ -211,6 +217,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边没有这个类型</t>
@@ -225,6 +232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边没有这个类型</t>
@@ -254,6 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>java国产化那边没有这个类型</t>
@@ -263,6 +272,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3151,6 +3161,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>结点</t>
@@ -3175,6 +3186,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>结点</t>
@@ -3238,6 +3250,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>横隔板长度(m)</t>
@@ -3263,9 +3276,6 @@
   </si>
   <si>
     <t>是否变截面：是， 否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桥面板材料： 砼 ， 钢 </t>
   </si>
   <si>
     <t>牛腿材料： 钢 ， 砼</t>
@@ -3493,6 +3503,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>string改int</t>
@@ -3508,6 +3519,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>悬臂孔长度(m)</t>
@@ -3957,6 +3969,10 @@
   </si>
   <si>
     <t>挂梁支座型式  （字段名修改）form_hbspt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桥面板材料： 砼 ， 钢 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3964,7 +3980,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4120,35 +4136,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4404,43 +4403,43 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4829,9 +4828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H269" sqref="H269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5836,10 +5835,10 @@
         <v>688</v>
       </c>
       <c r="C70" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E70" t="s">
         <v>719</v>
@@ -5853,7 +5852,7 @@
         <v>688</v>
       </c>
       <c r="C71" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>478</v>
@@ -5870,7 +5869,7 @@
         <v>688</v>
       </c>
       <c r="C72" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>479</v>
@@ -5907,7 +5906,7 @@
         <v>410</v>
       </c>
       <c r="D74" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E74" t="s">
         <v>719</v>
@@ -5924,7 +5923,7 @@
         <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E75" t="s">
         <v>719</v>
@@ -5941,7 +5940,7 @@
         <v>408</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E76" t="s">
         <v>720</v>
@@ -5961,7 +5960,7 @@
         <v>407</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E77" t="s">
         <v>719</v>
@@ -6021,7 +6020,7 @@
         <v>688</v>
       </c>
       <c r="C80" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>416</v>
@@ -6038,7 +6037,7 @@
         <v>688</v>
       </c>
       <c r="C81" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>417</v>
@@ -6344,10 +6343,10 @@
         <v>689</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D101" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E101" t="s">
         <v>719</v>
@@ -6358,10 +6357,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="D102" t="s">
         <v>768</v>
-      </c>
-      <c r="D102" t="s">
-        <v>769</v>
       </c>
       <c r="E102" t="s">
         <v>719</v>
@@ -6384,7 +6383,7 @@
         <v>689</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>682</v>
@@ -6398,7 +6397,7 @@
         <v>689</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>99</v>
@@ -6415,10 +6414,10 @@
         <v>689</v>
       </c>
       <c r="C105" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D105" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E105" t="s">
         <v>719</v>
@@ -6429,7 +6428,7 @@
     </row>
     <row r="106" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C106" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>732</v>
@@ -6449,7 +6448,7 @@
         <v>689</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D107" s="35" t="s">
         <v>100</v>
@@ -6460,7 +6459,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D108" t="s">
         <v>734</v>
@@ -6480,7 +6479,7 @@
         <v>689</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D109" s="34" t="s">
         <v>101</v>
@@ -6497,10 +6496,10 @@
         <v>689</v>
       </c>
       <c r="C110" s="51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E110" t="s">
         <v>722</v>
@@ -6514,10 +6513,10 @@
         <v>689</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E111" t="s">
         <v>722</v>
@@ -6531,10 +6530,10 @@
         <v>689</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E112" t="s">
         <v>722</v>
@@ -6548,7 +6547,7 @@
         <v>689</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>102</v>
@@ -6565,10 +6564,10 @@
         <v>689</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D114" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E114" t="s">
         <v>719</v>
@@ -6588,10 +6587,10 @@
         <v>689</v>
       </c>
       <c r="C115" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E115" t="s">
         <v>719</v>
@@ -6611,10 +6610,10 @@
         <v>689</v>
       </c>
       <c r="C116" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D116" s="46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E116" t="s">
         <v>719</v>
@@ -6628,7 +6627,7 @@
         <v>689</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>103</v>
@@ -6645,10 +6644,10 @@
         <v>689</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D118" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E118" t="s">
         <v>719</v>
@@ -6668,10 +6667,10 @@
         <v>689</v>
       </c>
       <c r="C119" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E119" t="s">
         <v>719</v>
@@ -6691,10 +6690,10 @@
         <v>689</v>
       </c>
       <c r="C120" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D120" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E120" t="s">
         <v>719</v>
@@ -6711,10 +6710,10 @@
         <v>689</v>
       </c>
       <c r="C121" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D121" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E121" t="s">
         <v>719</v>
@@ -6728,7 +6727,7 @@
         <v>689</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D122" s="34" t="s">
         <v>104</v>
@@ -6748,7 +6747,7 @@
         <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E123" t="s">
         <v>719</v>
@@ -6768,10 +6767,10 @@
         <v>689</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E124" t="s">
         <v>722</v>
@@ -6788,10 +6787,10 @@
         <v>689</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E125" t="s">
         <v>722</v>
@@ -6805,10 +6804,10 @@
         <v>689</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E126" t="s">
         <v>722</v>
@@ -6822,10 +6821,10 @@
         <v>689</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E127" t="s">
         <v>722</v>
@@ -6839,10 +6838,10 @@
         <v>689</v>
       </c>
       <c r="C128" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D128" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E128" t="s">
         <v>719</v>
@@ -6856,7 +6855,7 @@
         <v>689</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D129" s="34" t="s">
         <v>106</v>
@@ -6890,7 +6889,7 @@
         <v>689</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D131" s="38" t="s">
         <v>664</v>
@@ -7060,7 +7059,7 @@
         <v>690</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>107</v>
@@ -7080,7 +7079,7 @@
         <v>690</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D143" s="34" t="s">
         <v>109</v>
@@ -7097,7 +7096,7 @@
         <v>690</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>110</v>
@@ -7114,7 +7113,7 @@
         <v>690</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>85</v>
@@ -7128,7 +7127,7 @@
         <v>690</v>
       </c>
       <c r="C146" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D146" t="s">
         <v>739</v>
@@ -7154,7 +7153,7 @@
         <v>690</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>111</v>
@@ -7171,7 +7170,7 @@
         <v>690</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>112</v>
@@ -7188,10 +7187,10 @@
         <v>690</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E149" t="s">
         <v>719</v>
@@ -7200,7 +7199,7 @@
         <v>28</v>
       </c>
       <c r="H149" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -7211,16 +7210,16 @@
         <v>690</v>
       </c>
       <c r="C150" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D150" s="57" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E150" t="s">
         <v>719</v>
       </c>
       <c r="H150" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -7231,7 +7230,7 @@
         <v>690</v>
       </c>
       <c r="C151" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D151" t="s">
         <v>745</v>
@@ -7248,7 +7247,7 @@
         <v>690</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D152" t="s">
         <v>400</v>
@@ -7265,7 +7264,7 @@
         <v>690</v>
       </c>
       <c r="C153" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D153" t="s">
         <v>399</v>
@@ -7282,7 +7281,7 @@
         <v>690</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>113</v>
@@ -7299,10 +7298,10 @@
         <v>690</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E155" t="s">
         <v>719</v>
@@ -7311,7 +7310,7 @@
         <v>28</v>
       </c>
       <c r="H155" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -7322,10 +7321,10 @@
         <v>690</v>
       </c>
       <c r="C156" t="s">
+        <v>911</v>
+      </c>
+      <c r="D156" s="17" t="s">
         <v>912</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>913</v>
       </c>
       <c r="E156" t="s">
         <v>719</v>
@@ -7334,7 +7333,7 @@
         <v>28</v>
       </c>
       <c r="H156" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -7345,7 +7344,7 @@
         <v>690</v>
       </c>
       <c r="C157" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D157" t="s">
         <v>460</v>
@@ -7362,7 +7361,7 @@
         <v>690</v>
       </c>
       <c r="C158" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D158" t="s">
         <v>114</v>
@@ -7379,7 +7378,7 @@
         <v>690</v>
       </c>
       <c r="C159" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D159" t="s">
         <v>461</v>
@@ -7396,7 +7395,7 @@
         <v>690</v>
       </c>
       <c r="C160" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D160" t="s">
         <v>422</v>
@@ -7413,7 +7412,7 @@
         <v>690</v>
       </c>
       <c r="C161" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>423</v>
@@ -7425,7 +7424,7 @@
         <v>28</v>
       </c>
       <c r="H161" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -7439,7 +7438,7 @@
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E162" t="s">
         <v>719</v>
@@ -7473,7 +7472,7 @@
         <v>690</v>
       </c>
       <c r="C164" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D164" t="s">
         <v>743</v>
@@ -7493,10 +7492,10 @@
         <v>690</v>
       </c>
       <c r="C165" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D165" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E165" t="s">
         <v>719</v>
@@ -7510,7 +7509,7 @@
         <v>690</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D166" t="s">
         <v>424</v>
@@ -7527,10 +7526,10 @@
         <v>690</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E167" t="s">
         <v>722</v>
@@ -7541,7 +7540,7 @@
         <v>690</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D168" t="s">
         <v>418</v>
@@ -7578,10 +7577,10 @@
         <v>690</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E170" t="s">
         <v>722</v>
@@ -7595,10 +7594,10 @@
         <v>690</v>
       </c>
       <c r="C171" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E171" t="s">
         <v>722</v>
@@ -7629,10 +7628,10 @@
         <v>690</v>
       </c>
       <c r="C173" s="44" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D173" s="58" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E173" t="s">
         <v>722</v>
@@ -7641,21 +7640,21 @@
         <v>28</v>
       </c>
       <c r="H173" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B174" t="s">
         <v>690</v>
       </c>
       <c r="C174" s="45" t="s">
+        <v>936</v>
+      </c>
+      <c r="D174" s="43" t="s">
         <v>937</v>
-      </c>
-      <c r="D174" s="43" t="s">
-        <v>938</v>
       </c>
       <c r="E174" t="s">
         <v>722</v>
@@ -7669,10 +7668,10 @@
         <v>690</v>
       </c>
       <c r="C175" s="45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D175" s="43" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E175" t="s">
         <v>722</v>
@@ -7686,10 +7685,10 @@
         <v>690</v>
       </c>
       <c r="C176" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D176" s="43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E176" t="s">
         <v>722</v>
@@ -7703,7 +7702,7 @@
         <v>690</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D177" s="34" t="s">
         <v>117</v>
@@ -7720,10 +7719,10 @@
         <v>690</v>
       </c>
       <c r="C178" s="44" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D178" s="58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E178" t="s">
         <v>722</v>
@@ -7732,7 +7731,7 @@
         <v>28</v>
       </c>
       <c r="H178" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -7743,7 +7742,7 @@
         <v>690</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D179" s="34" t="s">
         <v>118</v>
@@ -7760,7 +7759,7 @@
         <v>690</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>119</v>
@@ -7777,10 +7776,10 @@
         <v>690</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D181" s="43" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E181" t="s">
         <v>722</v>
@@ -7794,7 +7793,7 @@
         <v>690</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D182" s="34" t="s">
         <v>120</v>
@@ -8017,7 +8016,7 @@
         <v>691</v>
       </c>
       <c r="C196" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D196" s="61" t="s">
         <v>373</v>
@@ -8057,7 +8056,7 @@
         <v>691</v>
       </c>
       <c r="C198" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>388</v>
@@ -8114,7 +8113,7 @@
         <v>691</v>
       </c>
       <c r="C201" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D201" t="s">
         <v>748</v>
@@ -8148,7 +8147,7 @@
         <v>691</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D203" s="61" t="s">
         <v>379</v>
@@ -8168,7 +8167,7 @@
         <v>691</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D204" s="52" t="s">
         <v>389</v>
@@ -8200,7 +8199,7 @@
         <v>28</v>
       </c>
       <c r="H205" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -8231,7 +8230,7 @@
         <v>395</v>
       </c>
       <c r="D207" s="61" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E207" t="s">
         <v>719</v>
@@ -8240,7 +8239,7 @@
         <v>28</v>
       </c>
       <c r="H207" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -8248,7 +8247,7 @@
         <v>691</v>
       </c>
       <c r="C208" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D208" t="s">
         <v>743</v>
@@ -8578,7 +8577,7 @@
         <v>28</v>
       </c>
       <c r="H227" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -8586,7 +8585,7 @@
         <v>692</v>
       </c>
       <c r="C228" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D228" t="s">
         <v>743</v>
@@ -8640,7 +8639,7 @@
         <v>692</v>
       </c>
       <c r="C231" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D231" t="s">
         <v>656</v>
@@ -8669,7 +8668,7 @@
         <v>28</v>
       </c>
       <c r="H232" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -8726,7 +8725,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
@@ -8986,7 +8985,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>693</v>
@@ -9009,7 +9008,7 @@
         <v>693</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D253" s="62" t="s">
         <v>450</v>
@@ -9021,7 +9020,7 @@
         <v>28</v>
       </c>
       <c r="H253" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -9032,7 +9031,7 @@
         <v>693</v>
       </c>
       <c r="C254" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D254" s="62" t="s">
         <v>451</v>
@@ -9044,7 +9043,7 @@
         <v>28</v>
       </c>
       <c r="H254" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -9072,10 +9071,10 @@
         <v>693</v>
       </c>
       <c r="C256" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D256" s="62" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E256" t="s">
         <v>719</v>
@@ -9183,7 +9182,7 @@
         <v>693</v>
       </c>
       <c r="C262" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D262" t="s">
         <v>743</v>
@@ -9215,7 +9214,7 @@
         <v>28</v>
       </c>
       <c r="H263" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -9266,7 +9265,7 @@
         <v>435</v>
       </c>
       <c r="D266" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E266" t="s">
         <v>719</v>
@@ -9332,7 +9331,7 @@
         <v>28</v>
       </c>
       <c r="H269" t="s">
-        <v>753</v>
+        <v>938</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -9578,7 +9577,7 @@
         <v>694</v>
       </c>
       <c r="C285" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D285" t="s">
         <v>739</v>
@@ -9593,7 +9592,7 @@
         <v>28</v>
       </c>
       <c r="H285" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -9664,7 +9663,7 @@
         <v>466</v>
       </c>
       <c r="D289" s="61" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E289" t="s">
         <v>719</v>
@@ -9673,7 +9672,7 @@
         <v>28</v>
       </c>
       <c r="H289" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -9730,7 +9729,7 @@
         <v>28</v>
       </c>
       <c r="H292" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -9761,7 +9760,7 @@
         <v>469</v>
       </c>
       <c r="D294" s="61" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E294" t="s">
         <v>719</v>
@@ -9770,7 +9769,7 @@
         <v>28</v>
       </c>
       <c r="H294" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -9832,10 +9831,10 @@
         <v>694</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D298" s="61" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E298" t="s">
         <v>722</v>
@@ -9864,7 +9863,7 @@
         <v>28</v>
       </c>
       <c r="H299" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -9872,7 +9871,7 @@
         <v>643</v>
       </c>
       <c r="B300" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C300" t="s">
         <v>474</v>
@@ -9889,7 +9888,7 @@
         <v>694</v>
       </c>
       <c r="C301" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D301" t="s">
         <v>743</v>
@@ -9909,10 +9908,10 @@
         <v>694</v>
       </c>
       <c r="C302" t="s">
+        <v>930</v>
+      </c>
+      <c r="D302" s="61" t="s">
         <v>931</v>
-      </c>
-      <c r="D302" s="61" t="s">
-        <v>932</v>
       </c>
       <c r="E302" t="s">
         <v>719</v>
@@ -9921,7 +9920,7 @@
         <v>28</v>
       </c>
       <c r="H302" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -9929,10 +9928,10 @@
         <v>694</v>
       </c>
       <c r="C303" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D303" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E303" t="s">
         <v>719</v>
@@ -9949,7 +9948,7 @@
         <v>694</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>462</v>
@@ -9966,10 +9965,10 @@
         <v>694</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -9980,10 +9979,10 @@
         <v>694</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -9994,10 +9993,10 @@
         <v>694</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -10008,10 +10007,10 @@
         <v>694</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -10022,10 +10021,10 @@
         <v>694</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -10056,7 +10055,7 @@
         <v>694</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D311" s="61" t="s">
         <v>425</v>
@@ -10076,7 +10075,7 @@
         <v>475</v>
       </c>
       <c r="D312" s="61" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E312" t="s">
         <v>722</v>
@@ -10085,7 +10084,7 @@
         <v>28</v>
       </c>
       <c r="H312" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -10355,7 +10354,7 @@
         <v>28</v>
       </c>
       <c r="H328" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -10417,7 +10416,7 @@
         <v>695</v>
       </c>
       <c r="C332" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D332" t="s">
         <v>479</v>
@@ -10446,7 +10445,7 @@
         <v>28</v>
       </c>
       <c r="H333" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -10471,7 +10470,7 @@
         <v>695</v>
       </c>
       <c r="C335" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D335" t="s">
         <v>743</v>
@@ -10494,7 +10493,7 @@
         <v>408</v>
       </c>
       <c r="D336" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E336" t="s">
         <v>719</v>
@@ -10503,7 +10502,7 @@
         <v>28</v>
       </c>
       <c r="H336" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -10749,7 +10748,7 @@
         <v>645</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C352" t="s">
         <v>509</v>
@@ -10955,7 +10954,7 @@
         <v>696</v>
       </c>
       <c r="C365" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D365" s="31" t="s">
         <v>663</v>
@@ -10966,7 +10965,7 @@
         <v>645</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C366" s="54" t="s">
         <v>674</v>
@@ -11092,7 +11091,7 @@
         <v>646</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C376" t="s">
         <v>60</v>
@@ -11290,7 +11289,7 @@
         <v>491</v>
       </c>
       <c r="D388" s="60" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -11318,7 +11317,7 @@
         <v>697</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D390" s="53" t="s">
         <v>663</v>
@@ -11455,7 +11454,7 @@
         <v>647</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C401" t="s">
         <v>60</v>
@@ -11622,7 +11621,7 @@
         <v>534</v>
       </c>
       <c r="D411" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G411" t="s">
         <v>28</v>
@@ -11892,7 +11891,7 @@
         <v>648</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C430" t="s">
         <v>60</v>
@@ -12110,7 +12109,7 @@
         <v>699</v>
       </c>
       <c r="C443" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D443" s="53" t="s">
         <v>663</v>
@@ -12247,7 +12246,7 @@
         <v>649</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C454" t="s">
         <v>60</v>
@@ -12360,7 +12359,7 @@
         <v>541</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -12590,7 +12589,7 @@
         <v>650</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C478" t="s">
         <v>60</v>
@@ -12624,7 +12623,7 @@
         <v>701</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D480" t="s">
         <v>566</v>
@@ -12638,7 +12637,7 @@
         <v>701</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D481" t="s">
         <v>567</v>
@@ -12686,7 +12685,7 @@
         <v>534</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
@@ -12731,10 +12730,10 @@
         <v>701</v>
       </c>
       <c r="C487" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D487" s="16" t="s">
         <v>901</v>
-      </c>
-      <c r="D487" s="16" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
@@ -12745,10 +12744,10 @@
         <v>701</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BE25F-E5A6-479C-BF90-7A8C1BBCFEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB39E551-A394-4B9F-9435-8F30A07ECEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="941">
   <si>
     <t>字段名</t>
   </si>
@@ -3138,9 +3138,6 @@
     <t>——</t>
   </si>
   <si>
-    <t>桁架片材料：钢筋砼 ， 预应力砼 ， 钢材</t>
-  </si>
-  <si>
     <t>桁架型式：X形 ， 米字形 ， 三角形 ， 其它</t>
   </si>
   <si>
@@ -3344,9 +3341,6 @@
     <t>material_vtc</t>
   </si>
   <si>
-    <t>section_form_vtc</t>
-  </si>
-  <si>
     <t>cross_length_vtc</t>
   </si>
   <si>
@@ -3649,10 +3643,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>联结件型式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>主梁跨中梁高(m)</t>
   </si>
   <si>
@@ -3973,6 +3963,26 @@
   </si>
   <si>
     <t xml:space="preserve">桥面板材料： 砼 ， 钢 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_form_vtc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁架片材料：钢筋砼 ， 预应力砼 ， 钢材</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联结件型式 (焊接，栓接，锚接，砼固接)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_span_form</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【(桁(衍)架梁桥) 主表】</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4828,9 +4838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H269" sqref="H269"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4860,16 +4870,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5835,10 +5845,10 @@
         <v>688</v>
       </c>
       <c r="C70" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E70" t="s">
         <v>719</v>
@@ -5852,7 +5862,7 @@
         <v>688</v>
       </c>
       <c r="C71" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>478</v>
@@ -5869,7 +5879,7 @@
         <v>688</v>
       </c>
       <c r="C72" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>479</v>
@@ -5906,7 +5916,7 @@
         <v>410</v>
       </c>
       <c r="D74" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E74" t="s">
         <v>719</v>
@@ -5923,7 +5933,7 @@
         <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E75" t="s">
         <v>719</v>
@@ -5940,7 +5950,7 @@
         <v>408</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E76" t="s">
         <v>720</v>
@@ -5960,7 +5970,7 @@
         <v>407</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E77" t="s">
         <v>719</v>
@@ -6020,7 +6030,7 @@
         <v>688</v>
       </c>
       <c r="C80" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>416</v>
@@ -6037,7 +6047,7 @@
         <v>688</v>
       </c>
       <c r="C81" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>417</v>
@@ -6292,7 +6302,7 @@
         <v>689</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>939</v>
       </c>
       <c r="D98" t="s">
         <v>95</v>
@@ -6343,36 +6353,36 @@
         <v>689</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D101" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E101" t="s">
         <v>719</v>
       </c>
       <c r="H101" t="s">
-        <v>724</v>
+        <v>937</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="D102" t="s">
         <v>767</v>
-      </c>
-      <c r="D102" t="s">
-        <v>768</v>
       </c>
       <c r="E102" t="s">
         <v>719</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G102" t="s">
         <v>28</v>
       </c>
       <c r="H102" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -6383,7 +6393,7 @@
         <v>689</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>682</v>
@@ -6397,7 +6407,7 @@
         <v>689</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>99</v>
@@ -6414,30 +6424,30 @@
         <v>689</v>
       </c>
       <c r="C105" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D105" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E105" t="s">
         <v>719</v>
       </c>
       <c r="F105" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C106" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E106" s="29" t="s">
         <v>719</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -6448,7 +6458,7 @@
         <v>689</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D107" s="35" t="s">
         <v>100</v>
@@ -6459,16 +6469,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D108" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E108" t="s">
         <v>719</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -6479,7 +6489,7 @@
         <v>689</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D109" s="34" t="s">
         <v>101</v>
@@ -6493,13 +6503,13 @@
         <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>689</v>
+        <v>940</v>
       </c>
       <c r="C110" s="51" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E110" t="s">
         <v>722</v>
@@ -6513,10 +6523,10 @@
         <v>689</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>856</v>
+        <v>938</v>
       </c>
       <c r="E111" t="s">
         <v>722</v>
@@ -6530,10 +6540,10 @@
         <v>689</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E112" t="s">
         <v>722</v>
@@ -6547,7 +6557,7 @@
         <v>689</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>102</v>
@@ -6564,10 +6574,10 @@
         <v>689</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D114" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E114" t="s">
         <v>719</v>
@@ -6576,7 +6586,7 @@
         <v>28</v>
       </c>
       <c r="H114" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -6587,10 +6597,10 @@
         <v>689</v>
       </c>
       <c r="C115" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E115" t="s">
         <v>719</v>
@@ -6599,7 +6609,7 @@
         <v>28</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -6610,10 +6620,10 @@
         <v>689</v>
       </c>
       <c r="C116" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D116" s="46" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E116" t="s">
         <v>719</v>
@@ -6627,7 +6637,7 @@
         <v>689</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>103</v>
@@ -6644,10 +6654,10 @@
         <v>689</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D118" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E118" t="s">
         <v>719</v>
@@ -6656,7 +6666,7 @@
         <v>28</v>
       </c>
       <c r="H118" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -6667,10 +6677,10 @@
         <v>689</v>
       </c>
       <c r="C119" t="s">
-        <v>775</v>
+        <v>936</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E119" t="s">
         <v>719</v>
@@ -6679,7 +6689,7 @@
         <v>28</v>
       </c>
       <c r="H119" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -6690,16 +6700,16 @@
         <v>689</v>
       </c>
       <c r="C120" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D120" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E120" t="s">
         <v>719</v>
       </c>
       <c r="F120" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -6710,10 +6720,10 @@
         <v>689</v>
       </c>
       <c r="C121" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D121" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E121" t="s">
         <v>719</v>
@@ -6727,7 +6737,7 @@
         <v>689</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D122" s="34" t="s">
         <v>104</v>
@@ -6747,7 +6757,7 @@
         <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E123" t="s">
         <v>719</v>
@@ -6756,7 +6766,7 @@
         <v>28</v>
       </c>
       <c r="H123" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -6767,10 +6777,10 @@
         <v>689</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E124" t="s">
         <v>722</v>
@@ -6787,10 +6797,10 @@
         <v>689</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E125" t="s">
         <v>722</v>
@@ -6804,10 +6814,10 @@
         <v>689</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E126" t="s">
         <v>722</v>
@@ -6821,10 +6831,10 @@
         <v>689</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E127" t="s">
         <v>722</v>
@@ -6838,10 +6848,10 @@
         <v>689</v>
       </c>
       <c r="C128" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D128" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E128" t="s">
         <v>719</v>
@@ -6855,7 +6865,7 @@
         <v>689</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D129" s="34" t="s">
         <v>106</v>
@@ -6889,7 +6899,7 @@
         <v>689</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D131" s="38" t="s">
         <v>664</v>
@@ -7059,7 +7069,7 @@
         <v>690</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>107</v>
@@ -7079,7 +7089,7 @@
         <v>690</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D143" s="34" t="s">
         <v>109</v>
@@ -7096,7 +7106,7 @@
         <v>690</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>110</v>
@@ -7113,7 +7123,7 @@
         <v>690</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>85</v>
@@ -7127,22 +7137,22 @@
         <v>690</v>
       </c>
       <c r="C146" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D146" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E146" t="s">
         <v>719</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G146" t="s">
         <v>28</v>
       </c>
       <c r="H146" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -7153,7 +7163,7 @@
         <v>690</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>111</v>
@@ -7170,7 +7180,7 @@
         <v>690</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>112</v>
@@ -7187,10 +7197,10 @@
         <v>690</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E149" t="s">
         <v>719</v>
@@ -7199,7 +7209,7 @@
         <v>28</v>
       </c>
       <c r="H149" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -7210,16 +7220,16 @@
         <v>690</v>
       </c>
       <c r="C150" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D150" s="57" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E150" t="s">
         <v>719</v>
       </c>
       <c r="H150" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -7230,10 +7240,10 @@
         <v>690</v>
       </c>
       <c r="C151" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D151" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E151" t="s">
         <v>719</v>
@@ -7247,7 +7257,7 @@
         <v>690</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D152" t="s">
         <v>400</v>
@@ -7264,7 +7274,7 @@
         <v>690</v>
       </c>
       <c r="C153" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D153" t="s">
         <v>399</v>
@@ -7281,7 +7291,7 @@
         <v>690</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>113</v>
@@ -7298,10 +7308,10 @@
         <v>690</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E155" t="s">
         <v>719</v>
@@ -7310,7 +7320,7 @@
         <v>28</v>
       </c>
       <c r="H155" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -7321,10 +7331,10 @@
         <v>690</v>
       </c>
       <c r="C156" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E156" t="s">
         <v>719</v>
@@ -7333,7 +7343,7 @@
         <v>28</v>
       </c>
       <c r="H156" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -7344,7 +7354,7 @@
         <v>690</v>
       </c>
       <c r="C157" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D157" t="s">
         <v>460</v>
@@ -7361,7 +7371,7 @@
         <v>690</v>
       </c>
       <c r="C158" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D158" t="s">
         <v>114</v>
@@ -7378,7 +7388,7 @@
         <v>690</v>
       </c>
       <c r="C159" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D159" t="s">
         <v>461</v>
@@ -7395,7 +7405,7 @@
         <v>690</v>
       </c>
       <c r="C160" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D160" t="s">
         <v>422</v>
@@ -7412,7 +7422,7 @@
         <v>690</v>
       </c>
       <c r="C161" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>423</v>
@@ -7424,7 +7434,7 @@
         <v>28</v>
       </c>
       <c r="H161" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -7438,7 +7448,7 @@
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E162" t="s">
         <v>719</v>
@@ -7447,7 +7457,7 @@
         <v>28</v>
       </c>
       <c r="H162" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -7464,7 +7474,7 @@
         <v>719</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -7472,16 +7482,16 @@
         <v>690</v>
       </c>
       <c r="C164" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D164" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E164" t="s">
         <v>719</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -7492,10 +7502,10 @@
         <v>690</v>
       </c>
       <c r="C165" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D165" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E165" t="s">
         <v>719</v>
@@ -7509,7 +7519,7 @@
         <v>690</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D166" t="s">
         <v>424</v>
@@ -7526,10 +7536,10 @@
         <v>690</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E167" t="s">
         <v>722</v>
@@ -7540,7 +7550,7 @@
         <v>690</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D168" t="s">
         <v>418</v>
@@ -7549,7 +7559,7 @@
         <v>719</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -7560,13 +7570,13 @@
         <v>58</v>
       </c>
       <c r="D169" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E169" t="s">
         <v>719</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -7577,10 +7587,10 @@
         <v>690</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D170" s="43" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E170" t="s">
         <v>722</v>
@@ -7594,10 +7604,10 @@
         <v>690</v>
       </c>
       <c r="C171" s="45" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D171" s="43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E171" t="s">
         <v>722</v>
@@ -7628,10 +7638,10 @@
         <v>690</v>
       </c>
       <c r="C173" s="44" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D173" s="58" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E173" t="s">
         <v>722</v>
@@ -7640,21 +7650,21 @@
         <v>28</v>
       </c>
       <c r="H173" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B174" t="s">
         <v>690</v>
       </c>
       <c r="C174" s="45" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D174" s="43" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E174" t="s">
         <v>722</v>
@@ -7668,10 +7678,10 @@
         <v>690</v>
       </c>
       <c r="C175" s="45" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D175" s="43" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E175" t="s">
         <v>722</v>
@@ -7685,10 +7695,10 @@
         <v>690</v>
       </c>
       <c r="C176" s="45" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D176" s="43" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E176" t="s">
         <v>722</v>
@@ -7702,7 +7712,7 @@
         <v>690</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D177" s="34" t="s">
         <v>117</v>
@@ -7719,10 +7729,10 @@
         <v>690</v>
       </c>
       <c r="C178" s="44" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D178" s="58" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E178" t="s">
         <v>722</v>
@@ -7731,7 +7741,7 @@
         <v>28</v>
       </c>
       <c r="H178" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -7742,7 +7752,7 @@
         <v>690</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D179" s="34" t="s">
         <v>118</v>
@@ -7759,7 +7769,7 @@
         <v>690</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D180" s="34" t="s">
         <v>119</v>
@@ -7776,10 +7786,10 @@
         <v>690</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D181" s="43" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E181" t="s">
         <v>722</v>
@@ -7793,7 +7803,7 @@
         <v>690</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D182" s="34" t="s">
         <v>120</v>
@@ -8016,7 +8026,7 @@
         <v>691</v>
       </c>
       <c r="C196" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D196" s="61" t="s">
         <v>373</v>
@@ -8028,7 +8038,7 @@
         <v>28</v>
       </c>
       <c r="H196" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -8056,7 +8066,7 @@
         <v>691</v>
       </c>
       <c r="C198" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>388</v>
@@ -8068,7 +8078,7 @@
         <v>28</v>
       </c>
       <c r="H198" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -8113,10 +8123,10 @@
         <v>691</v>
       </c>
       <c r="C201" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D201" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E201" t="s">
         <v>719</v>
@@ -8147,7 +8157,7 @@
         <v>691</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D203" s="61" t="s">
         <v>379</v>
@@ -8167,7 +8177,7 @@
         <v>691</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D204" s="52" t="s">
         <v>389</v>
@@ -8199,7 +8209,7 @@
         <v>28</v>
       </c>
       <c r="H205" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -8230,7 +8240,7 @@
         <v>395</v>
       </c>
       <c r="D207" s="61" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E207" t="s">
         <v>719</v>
@@ -8239,7 +8249,7 @@
         <v>28</v>
       </c>
       <c r="H207" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -8247,16 +8257,16 @@
         <v>691</v>
       </c>
       <c r="C208" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D208" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E208" t="s">
         <v>719</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -8284,13 +8294,13 @@
         <v>58</v>
       </c>
       <c r="D210" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E210" t="s">
         <v>719</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -8517,7 +8527,7 @@
         <v>28</v>
       </c>
       <c r="H224" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -8577,7 +8587,7 @@
         <v>28</v>
       </c>
       <c r="H227" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -8585,16 +8595,16 @@
         <v>692</v>
       </c>
       <c r="C228" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D228" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E228" t="s">
         <v>719</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -8639,7 +8649,7 @@
         <v>692</v>
       </c>
       <c r="C231" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D231" t="s">
         <v>656</v>
@@ -8668,7 +8678,7 @@
         <v>28</v>
       </c>
       <c r="H232" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -8696,13 +8706,13 @@
         <v>58</v>
       </c>
       <c r="D234" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E234" t="s">
         <v>719</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -8725,7 +8735,7 @@
         <v>28</v>
       </c>
       <c r="H235" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
@@ -8985,7 +8995,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>693</v>
@@ -9008,7 +9018,7 @@
         <v>693</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D253" s="62" t="s">
         <v>450</v>
@@ -9020,7 +9030,7 @@
         <v>28</v>
       </c>
       <c r="H253" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -9031,7 +9041,7 @@
         <v>693</v>
       </c>
       <c r="C254" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D254" s="62" t="s">
         <v>451</v>
@@ -9043,7 +9053,7 @@
         <v>28</v>
       </c>
       <c r="H254" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -9071,10 +9081,10 @@
         <v>693</v>
       </c>
       <c r="C256" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D256" s="62" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E256" t="s">
         <v>719</v>
@@ -9083,7 +9093,7 @@
         <v>28</v>
       </c>
       <c r="H256" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -9128,13 +9138,13 @@
         <v>58</v>
       </c>
       <c r="D259" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E259" t="s">
         <v>719</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -9174,7 +9184,7 @@
         <v>28</v>
       </c>
       <c r="H261" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -9182,16 +9192,16 @@
         <v>693</v>
       </c>
       <c r="C262" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D262" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E262" t="s">
         <v>719</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -9214,7 +9224,7 @@
         <v>28</v>
       </c>
       <c r="H263" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -9265,7 +9275,7 @@
         <v>435</v>
       </c>
       <c r="D266" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E266" t="s">
         <v>719</v>
@@ -9274,7 +9284,7 @@
         <v>28</v>
       </c>
       <c r="H266" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -9331,7 +9341,7 @@
         <v>28</v>
       </c>
       <c r="H269" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -9577,22 +9587,22 @@
         <v>694</v>
       </c>
       <c r="C285" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D285" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E285" t="s">
         <v>719</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G285" t="s">
         <v>28</v>
       </c>
       <c r="H285" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -9632,7 +9642,7 @@
         <v>28</v>
       </c>
       <c r="H287" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -9663,7 +9673,7 @@
         <v>466</v>
       </c>
       <c r="D289" s="61" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E289" t="s">
         <v>719</v>
@@ -9672,7 +9682,7 @@
         <v>28</v>
       </c>
       <c r="H289" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -9729,7 +9739,7 @@
         <v>28</v>
       </c>
       <c r="H292" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -9760,7 +9770,7 @@
         <v>469</v>
       </c>
       <c r="D294" s="61" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E294" t="s">
         <v>719</v>
@@ -9769,7 +9779,7 @@
         <v>28</v>
       </c>
       <c r="H294" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -9831,10 +9841,10 @@
         <v>694</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D298" s="61" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E298" t="s">
         <v>722</v>
@@ -9863,7 +9873,7 @@
         <v>28</v>
       </c>
       <c r="H299" s="14" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -9871,7 +9881,7 @@
         <v>643</v>
       </c>
       <c r="B300" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C300" t="s">
         <v>474</v>
@@ -9888,16 +9898,16 @@
         <v>694</v>
       </c>
       <c r="C301" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D301" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E301" t="s">
         <v>719</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -9908,10 +9918,10 @@
         <v>694</v>
       </c>
       <c r="C302" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D302" s="61" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E302" t="s">
         <v>719</v>
@@ -9920,7 +9930,7 @@
         <v>28</v>
       </c>
       <c r="H302" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -9928,16 +9938,16 @@
         <v>694</v>
       </c>
       <c r="C303" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D303" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E303" t="s">
         <v>719</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -9948,7 +9958,7 @@
         <v>694</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>462</v>
@@ -9965,10 +9975,10 @@
         <v>694</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -9979,10 +9989,10 @@
         <v>694</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -9993,10 +10003,10 @@
         <v>694</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -10007,10 +10017,10 @@
         <v>694</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -10021,10 +10031,10 @@
         <v>694</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -10038,13 +10048,13 @@
         <v>58</v>
       </c>
       <c r="D310" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E310" t="s">
         <v>719</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -10055,7 +10065,7 @@
         <v>694</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D311" s="61" t="s">
         <v>425</v>
@@ -10075,7 +10085,7 @@
         <v>475</v>
       </c>
       <c r="D312" s="61" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E312" t="s">
         <v>722</v>
@@ -10084,7 +10094,7 @@
         <v>28</v>
       </c>
       <c r="H312" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -10331,7 +10341,7 @@
         <v>28</v>
       </c>
       <c r="H327" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -10354,7 +10364,7 @@
         <v>28</v>
       </c>
       <c r="H328" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -10416,7 +10426,7 @@
         <v>695</v>
       </c>
       <c r="C332" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D332" t="s">
         <v>479</v>
@@ -10445,7 +10455,7 @@
         <v>28</v>
       </c>
       <c r="H333" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -10470,16 +10480,16 @@
         <v>695</v>
       </c>
       <c r="C335" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D335" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E335" t="s">
         <v>719</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -10493,7 +10503,7 @@
         <v>408</v>
       </c>
       <c r="D336" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E336" t="s">
         <v>719</v>
@@ -10502,7 +10512,7 @@
         <v>28</v>
       </c>
       <c r="H336" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -10513,13 +10523,13 @@
         <v>58</v>
       </c>
       <c r="D337" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E337" t="s">
         <v>719</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -10748,7 +10758,7 @@
         <v>645</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C352" t="s">
         <v>509</v>
@@ -10954,7 +10964,7 @@
         <v>696</v>
       </c>
       <c r="C365" s="33" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D365" s="31" t="s">
         <v>663</v>
@@ -10965,7 +10975,7 @@
         <v>645</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C366" s="54" t="s">
         <v>674</v>
@@ -11091,7 +11101,7 @@
         <v>646</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C376" t="s">
         <v>60</v>
@@ -11289,7 +11299,7 @@
         <v>491</v>
       </c>
       <c r="D388" s="60" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -11317,7 +11327,7 @@
         <v>697</v>
       </c>
       <c r="C390" s="33" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D390" s="53" t="s">
         <v>663</v>
@@ -11454,7 +11464,7 @@
         <v>647</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C401" t="s">
         <v>60</v>
@@ -11621,7 +11631,7 @@
         <v>534</v>
       </c>
       <c r="D411" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="G411" t="s">
         <v>28</v>
@@ -11891,7 +11901,7 @@
         <v>648</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C430" t="s">
         <v>60</v>
@@ -12109,7 +12119,7 @@
         <v>699</v>
       </c>
       <c r="C443" s="33" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D443" s="53" t="s">
         <v>663</v>
@@ -12246,7 +12256,7 @@
         <v>649</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C454" t="s">
         <v>60</v>
@@ -12359,7 +12369,7 @@
         <v>541</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -12589,7 +12599,7 @@
         <v>650</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C478" t="s">
         <v>60</v>
@@ -12623,7 +12633,7 @@
         <v>701</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D480" t="s">
         <v>566</v>
@@ -12637,7 +12647,7 @@
         <v>701</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D481" t="s">
         <v>567</v>
@@ -12685,7 +12695,7 @@
         <v>534</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
@@ -12730,10 +12740,10 @@
         <v>701</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D487" s="16" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
@@ -12744,10 +12754,10 @@
         <v>701</v>
       </c>
       <c r="C488" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D488" s="16" t="s">
         <v>899</v>
-      </c>
-      <c r="D488" s="16" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">

--- a/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
+++ b/work/V1.2_新增字段_修订中和Java对比 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB39E551-A394-4B9F-9435-8F30A07ECEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167F3A5-9EBE-4E89-9377-37EBD6AF3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4839,8 +4839,8 @@
   <dimension ref="A1:H650"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5733,7 +5733,7 @@
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="17" t="s">
         <v>688</v>
       </c>
       <c r="C64" t="s">
@@ -6281,7 +6281,7 @@
       <c r="A97" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="17" t="s">
         <v>689</v>
       </c>
       <c r="C97" t="s">
@@ -7048,7 +7048,7 @@
       <c r="A141" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="17" t="s">
         <v>690</v>
       </c>
       <c r="C141" t="s">
